--- a/data/original_data/PF2-2-Use-childbirth-leave.xlsx
+++ b/data/original_data/PF2-2-Use-childbirth-leave.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\01_Ironhack\projects\female-labour\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{726284EC-5182-418A-BF13-55AEEB1C2C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31080" yWindow="2280" windowWidth="20940" windowHeight="7275" tabRatio="818" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart PF2.2.A" sheetId="68" r:id="rId1"/>
@@ -2002,6 +2002,9 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="91" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="90" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2028,9 +2031,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="89" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="90" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -15463,7 +15463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -17652,8 +17652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -19508,7 +19508,7 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="M3" sqref="M3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -31180,23 +31180,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
       <c r="U1" s="9"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
@@ -31205,45 +31205,45 @@
       <c r="AA1" s="19"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
     </row>
     <row r="3" spans="1:27" ht="14.5" thickBot="1">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="135"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -31267,7 +31267,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="136"/>
+      <c r="C5" s="137"/>
       <c r="D5" s="13">
         <v>2005</v>
       </c>
@@ -31326,10 +31326,10 @@
       <c r="Y5" s="21"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -31386,7 +31386,7 @@
       <c r="T6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="131"/>
+      <c r="U6" s="132"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
@@ -31394,8 +31394,8 @@
       <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
@@ -31450,7 +31450,7 @@
       <c r="T7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="131"/>
+      <c r="U7" s="132"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
@@ -31458,8 +31458,8 @@
       <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
       <c r="C8" s="16" t="s">
         <v>50</v>
       </c>
@@ -31514,7 +31514,7 @@
       <c r="T8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="131"/>
+      <c r="U8" s="132"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
@@ -31522,8 +31522,8 @@
       <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="129"/>
-      <c r="B9" s="130"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="24" t="s">
         <v>51</v>
       </c>
@@ -31578,7 +31578,7 @@
       <c r="T9" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="131"/>
+      <c r="U9" s="132"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
@@ -31586,8 +31586,8 @@
       <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129" t="s">
+      <c r="A10" s="130"/>
+      <c r="B10" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -31644,7 +31644,7 @@
       <c r="T10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="131"/>
+      <c r="U10" s="132"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
@@ -31652,8 +31652,8 @@
       <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
@@ -31708,7 +31708,7 @@
       <c r="T11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="131"/>
+      <c r="U11" s="132"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
@@ -31716,8 +31716,8 @@
       <c r="Z11" s="19"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="16" t="s">
         <v>50</v>
       </c>
@@ -31772,7 +31772,7 @@
       <c r="T12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="131"/>
+      <c r="U12" s="132"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
@@ -31780,8 +31780,8 @@
       <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="24" t="s">
         <v>51</v>
       </c>
@@ -31836,7 +31836,7 @@
       <c r="T13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="131"/>
+      <c r="U13" s="132"/>
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
@@ -31844,10 +31844,10 @@
       <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -31904,7 +31904,7 @@
       <c r="T14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="131"/>
+      <c r="U14" s="132"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
@@ -31912,8 +31912,8 @@
       <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
+      <c r="A15" s="130"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="14" t="s">
         <v>49</v>
       </c>
@@ -31968,7 +31968,7 @@
       <c r="T15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="131"/>
+      <c r="U15" s="132"/>
       <c r="V15" s="22"/>
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
@@ -31976,8 +31976,8 @@
       <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="130"/>
       <c r="C16" s="16" t="s">
         <v>50</v>
       </c>
@@ -32032,7 +32032,7 @@
       <c r="T16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="131"/>
+      <c r="U16" s="132"/>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
@@ -32040,8 +32040,8 @@
       <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="24" t="s">
         <v>51</v>
       </c>
@@ -32096,7 +32096,7 @@
       <c r="T17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="131"/>
+      <c r="U17" s="132"/>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
@@ -32104,8 +32104,8 @@
       <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129" t="s">
+      <c r="A18" s="130"/>
+      <c r="B18" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -32162,7 +32162,7 @@
       <c r="T18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="131"/>
+      <c r="U18" s="132"/>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
@@ -32170,8 +32170,8 @@
       <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="129"/>
-      <c r="B19" s="129"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="130"/>
       <c r="C19" s="14" t="s">
         <v>49</v>
       </c>
@@ -32226,7 +32226,7 @@
       <c r="T19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="131"/>
+      <c r="U19" s="132"/>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
@@ -32234,8 +32234,8 @@
       <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="129"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="130"/>
       <c r="C20" s="16" t="s">
         <v>50</v>
       </c>
@@ -32290,7 +32290,7 @@
       <c r="T20" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="131"/>
+      <c r="U20" s="132"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
       <c r="X20" s="22"/>
@@ -32298,8 +32298,8 @@
       <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="130"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="24" t="s">
         <v>51</v>
       </c>
@@ -32354,7 +32354,7 @@
       <c r="T21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="131"/>
+      <c r="U21" s="132"/>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
@@ -32362,10 +32362,10 @@
       <c r="Z21" s="19"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -32422,7 +32422,7 @@
       <c r="T22" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="131"/>
+      <c r="U22" s="132"/>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
       <c r="X22" s="22"/>
@@ -32430,8 +32430,8 @@
       <c r="Z22" s="19"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="129"/>
-      <c r="B23" s="129"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="14" t="s">
         <v>49</v>
       </c>
@@ -32486,7 +32486,7 @@
       <c r="T23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="131"/>
+      <c r="U23" s="132"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
       <c r="X23" s="22"/>
@@ -32494,8 +32494,8 @@
       <c r="Z23" s="19"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="129"/>
-      <c r="B24" s="129"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="16" t="s">
         <v>50</v>
       </c>
@@ -32550,7 +32550,7 @@
       <c r="T24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="131"/>
+      <c r="U24" s="132"/>
       <c r="V24" s="22"/>
       <c r="W24" s="22"/>
       <c r="X24" s="22"/>
@@ -32558,8 +32558,8 @@
       <c r="Z24" s="19"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="129"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="24" t="s">
         <v>51</v>
       </c>
@@ -32614,7 +32614,7 @@
       <c r="T25" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="131"/>
+      <c r="U25" s="132"/>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
@@ -32622,8 +32622,8 @@
       <c r="Z25" s="19"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="129"/>
-      <c r="B26" s="129" t="s">
+      <c r="A26" s="130"/>
+      <c r="B26" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -32680,7 +32680,7 @@
       <c r="T26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="131"/>
+      <c r="U26" s="132"/>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
       <c r="X26" s="22"/>
@@ -32688,8 +32688,8 @@
       <c r="Z26" s="19"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="129"/>
-      <c r="B27" s="129"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
       <c r="C27" s="14" t="s">
         <v>49</v>
       </c>
@@ -32744,7 +32744,7 @@
       <c r="T27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="131"/>
+      <c r="U27" s="132"/>
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="22"/>
@@ -32752,8 +32752,8 @@
       <c r="Z27" s="19"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="129"/>
-      <c r="B28" s="129"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="130"/>
       <c r="C28" s="16" t="s">
         <v>50</v>
       </c>
@@ -32808,7 +32808,7 @@
       <c r="T28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="131"/>
+      <c r="U28" s="132"/>
       <c r="V28" s="22"/>
       <c r="W28" s="22"/>
       <c r="X28" s="22"/>
@@ -32816,8 +32816,8 @@
       <c r="Z28" s="19"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="24" t="s">
         <v>51</v>
       </c>
@@ -32872,7 +32872,7 @@
       <c r="T29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="131"/>
+      <c r="U29" s="132"/>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
       <c r="X29" s="22"/>
@@ -32880,10 +32880,10 @@
       <c r="Z29" s="19"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="128" t="s">
+      <c r="A30" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -32940,7 +32940,7 @@
       <c r="T30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="131"/>
+      <c r="U30" s="132"/>
       <c r="V30" s="22"/>
       <c r="W30" s="22"/>
       <c r="X30" s="22"/>
@@ -32948,8 +32948,8 @@
       <c r="Z30" s="19"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="129"/>
-      <c r="B31" s="129"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
       <c r="C31" s="14" t="s">
         <v>49</v>
       </c>
@@ -33004,7 +33004,7 @@
       <c r="T31" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="131"/>
+      <c r="U31" s="132"/>
       <c r="V31" s="22"/>
       <c r="W31" s="22"/>
       <c r="X31" s="22"/>
@@ -33012,8 +33012,8 @@
       <c r="Z31" s="19"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="129"/>
-      <c r="B32" s="129"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="16" t="s">
         <v>50</v>
       </c>
@@ -33068,7 +33068,7 @@
       <c r="T32" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="131"/>
+      <c r="U32" s="132"/>
       <c r="V32" s="22"/>
       <c r="W32" s="22"/>
       <c r="X32" s="22"/>
@@ -33076,8 +33076,8 @@
       <c r="Z32" s="19"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="129"/>
-      <c r="B33" s="130"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="24" t="s">
         <v>51</v>
       </c>
@@ -33132,7 +33132,7 @@
       <c r="T33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U33" s="131"/>
+      <c r="U33" s="132"/>
       <c r="V33" s="22"/>
       <c r="W33" s="22"/>
       <c r="X33" s="22"/>
@@ -33140,8 +33140,8 @@
       <c r="Z33" s="19"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="129"/>
-      <c r="B34" s="129" t="s">
+      <c r="A34" s="130"/>
+      <c r="B34" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="16" t="s">
@@ -33198,7 +33198,7 @@
       <c r="T34" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U34" s="131"/>
+      <c r="U34" s="132"/>
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
       <c r="X34" s="22"/>
@@ -33206,8 +33206,8 @@
       <c r="Z34" s="19"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="129"/>
-      <c r="B35" s="129"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="14" t="s">
         <v>49</v>
       </c>
@@ -33262,7 +33262,7 @@
       <c r="T35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U35" s="131"/>
+      <c r="U35" s="132"/>
       <c r="V35" s="22"/>
       <c r="W35" s="22"/>
       <c r="X35" s="22"/>
@@ -33270,8 +33270,8 @@
       <c r="Z35" s="19"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="129"/>
-      <c r="B36" s="129"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="16" t="s">
         <v>50</v>
       </c>
@@ -33326,7 +33326,7 @@
       <c r="T36" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U36" s="131"/>
+      <c r="U36" s="132"/>
       <c r="V36" s="22"/>
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
@@ -33334,8 +33334,8 @@
       <c r="Z36" s="19"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="130"/>
-      <c r="B37" s="130"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="24" t="s">
         <v>51</v>
       </c>
@@ -33390,7 +33390,7 @@
       <c r="T37" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U37" s="131"/>
+      <c r="U37" s="132"/>
       <c r="V37" s="22"/>
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
@@ -33398,10 +33398,10 @@
       <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="1:26" ht="14.15" customHeight="1">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="16" t="s">
@@ -33458,7 +33458,7 @@
       <c r="T38" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U38" s="131"/>
+      <c r="U38" s="132"/>
       <c r="V38" s="22"/>
       <c r="W38" s="22"/>
       <c r="X38" s="22"/>
@@ -33466,8 +33466,8 @@
       <c r="Z38" s="19"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="129"/>
-      <c r="B39" s="129"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="14" t="s">
         <v>49</v>
       </c>
@@ -33522,7 +33522,7 @@
       <c r="T39" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U39" s="131"/>
+      <c r="U39" s="132"/>
       <c r="V39" s="22"/>
       <c r="W39" s="22"/>
       <c r="X39" s="22"/>
@@ -33530,8 +33530,8 @@
       <c r="Z39" s="19"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="129"/>
-      <c r="B40" s="129"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="16" t="s">
         <v>50</v>
       </c>
@@ -33586,7 +33586,7 @@
       <c r="T40" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U40" s="131"/>
+      <c r="U40" s="132"/>
       <c r="V40" s="22"/>
       <c r="W40" s="22"/>
       <c r="X40" s="22"/>
@@ -33594,8 +33594,8 @@
       <c r="Z40" s="19"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="129"/>
-      <c r="B41" s="130"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="131"/>
       <c r="C41" s="24" t="s">
         <v>51</v>
       </c>
@@ -33650,7 +33650,7 @@
       <c r="T41" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="131"/>
+      <c r="U41" s="132"/>
       <c r="V41" s="22"/>
       <c r="W41" s="22"/>
       <c r="X41" s="22"/>
@@ -33658,8 +33658,8 @@
       <c r="Z41" s="19"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="129"/>
-      <c r="B42" s="129" t="s">
+      <c r="A42" s="130"/>
+      <c r="B42" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="16" t="s">
@@ -33716,7 +33716,7 @@
       <c r="T42" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U42" s="131"/>
+      <c r="U42" s="132"/>
       <c r="V42" s="22"/>
       <c r="W42" s="22"/>
       <c r="X42" s="22"/>
@@ -33724,8 +33724,8 @@
       <c r="Z42" s="19"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="129"/>
-      <c r="B43" s="129"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="130"/>
       <c r="C43" s="14" t="s">
         <v>49</v>
       </c>
@@ -33780,7 +33780,7 @@
       <c r="T43" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U43" s="131"/>
+      <c r="U43" s="132"/>
       <c r="V43" s="22"/>
       <c r="W43" s="22"/>
       <c r="X43" s="22"/>
@@ -33788,8 +33788,8 @@
       <c r="Z43" s="19"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="129"/>
-      <c r="B44" s="129"/>
+      <c r="A44" s="130"/>
+      <c r="B44" s="130"/>
       <c r="C44" s="16" t="s">
         <v>50</v>
       </c>
@@ -33844,7 +33844,7 @@
       <c r="T44" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U44" s="131"/>
+      <c r="U44" s="132"/>
       <c r="V44" s="22"/>
       <c r="W44" s="22"/>
       <c r="X44" s="22"/>
@@ -33852,8 +33852,8 @@
       <c r="Z44" s="19"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="130"/>
-      <c r="B45" s="130"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="24" t="s">
         <v>51</v>
       </c>
@@ -33908,7 +33908,7 @@
       <c r="T45" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U45" s="131"/>
+      <c r="U45" s="132"/>
       <c r="V45" s="22"/>
       <c r="W45" s="22"/>
       <c r="X45" s="22"/>
@@ -33916,10 +33916,10 @@
       <c r="Z45" s="19"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="128" t="s">
+      <c r="B46" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="16" t="s">
@@ -33983,8 +33983,8 @@
       <c r="Z46" s="19"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="129"/>
-      <c r="B47" s="129"/>
+      <c r="A47" s="130"/>
+      <c r="B47" s="130"/>
       <c r="C47" s="14" t="s">
         <v>49</v>
       </c>
@@ -34046,8 +34046,8 @@
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="129"/>
-      <c r="B48" s="129"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="130"/>
       <c r="C48" s="16" t="s">
         <v>50</v>
       </c>
@@ -34109,8 +34109,8 @@
       <c r="Z48" s="19"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="129"/>
-      <c r="B49" s="130"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="131"/>
       <c r="C49" s="24" t="s">
         <v>51</v>
       </c>
@@ -34172,8 +34172,8 @@
       <c r="Z49" s="19"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="129"/>
-      <c r="B50" s="129" t="s">
+      <c r="A50" s="130"/>
+      <c r="B50" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="16" t="s">
@@ -34237,8 +34237,8 @@
       <c r="Z50" s="19"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="129"/>
-      <c r="B51" s="129"/>
+      <c r="A51" s="130"/>
+      <c r="B51" s="130"/>
       <c r="C51" s="14" t="s">
         <v>49</v>
       </c>
@@ -34300,8 +34300,8 @@
       <c r="Z51" s="19"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="129"/>
-      <c r="B52" s="129"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="130"/>
       <c r="C52" s="16" t="s">
         <v>50</v>
       </c>
@@ -34363,8 +34363,8 @@
       <c r="Z52" s="19"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="130"/>
-      <c r="B53" s="130"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="131"/>
       <c r="C53" s="24" t="s">
         <v>51</v>
       </c>
@@ -34426,10 +34426,10 @@
       <c r="Z53" s="19"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="128" t="s">
+      <c r="A54" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="128" t="s">
+      <c r="B54" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="16" t="s">
@@ -34486,7 +34486,7 @@
       <c r="T54" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="131"/>
+      <c r="U54" s="132"/>
       <c r="V54" s="22"/>
       <c r="W54" s="22"/>
       <c r="X54" s="22"/>
@@ -34494,8 +34494,8 @@
       <c r="Z54" s="19"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="129"/>
-      <c r="B55" s="129"/>
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
       <c r="C55" s="14" t="s">
         <v>49</v>
       </c>
@@ -34550,7 +34550,7 @@
       <c r="T55" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U55" s="131"/>
+      <c r="U55" s="132"/>
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
       <c r="X55" s="22"/>
@@ -34558,8 +34558,8 @@
       <c r="Z55" s="19"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="129"/>
-      <c r="B56" s="129"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="130"/>
       <c r="C56" s="16" t="s">
         <v>50</v>
       </c>
@@ -34614,7 +34614,7 @@
       <c r="T56" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U56" s="131"/>
+      <c r="U56" s="132"/>
       <c r="V56" s="22"/>
       <c r="W56" s="22"/>
       <c r="X56" s="22"/>
@@ -34622,8 +34622,8 @@
       <c r="Z56" s="19"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="129"/>
-      <c r="B57" s="130"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="131"/>
       <c r="C57" s="24" t="s">
         <v>51</v>
       </c>
@@ -34678,7 +34678,7 @@
       <c r="T57" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U57" s="131"/>
+      <c r="U57" s="132"/>
       <c r="V57" s="22"/>
       <c r="W57" s="22"/>
       <c r="X57" s="22"/>
@@ -34686,8 +34686,8 @@
       <c r="Z57" s="19"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="129"/>
-      <c r="B58" s="129" t="s">
+      <c r="A58" s="130"/>
+      <c r="B58" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -34744,7 +34744,7 @@
       <c r="T58" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U58" s="131"/>
+      <c r="U58" s="132"/>
       <c r="V58" s="22"/>
       <c r="W58" s="22"/>
       <c r="X58" s="22"/>
@@ -34752,8 +34752,8 @@
       <c r="Z58" s="19"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="129"/>
-      <c r="B59" s="129"/>
+      <c r="A59" s="130"/>
+      <c r="B59" s="130"/>
       <c r="C59" s="14" t="s">
         <v>49</v>
       </c>
@@ -34808,7 +34808,7 @@
       <c r="T59" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U59" s="131"/>
+      <c r="U59" s="132"/>
       <c r="V59" s="22"/>
       <c r="W59" s="22"/>
       <c r="X59" s="22"/>
@@ -34816,8 +34816,8 @@
       <c r="Z59" s="19"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="129"/>
-      <c r="B60" s="129"/>
+      <c r="A60" s="130"/>
+      <c r="B60" s="130"/>
       <c r="C60" s="16" t="s">
         <v>50</v>
       </c>
@@ -34872,7 +34872,7 @@
       <c r="T60" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U60" s="131"/>
+      <c r="U60" s="132"/>
       <c r="V60" s="22"/>
       <c r="W60" s="22"/>
       <c r="X60" s="22"/>
@@ -34880,8 +34880,8 @@
       <c r="Z60" s="19"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="130"/>
-      <c r="B61" s="130"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="131"/>
       <c r="C61" s="24" t="s">
         <v>51</v>
       </c>
@@ -34936,7 +34936,7 @@
       <c r="T61" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U61" s="131"/>
+      <c r="U61" s="132"/>
       <c r="V61" s="22"/>
       <c r="W61" s="22"/>
       <c r="X61" s="22"/>
@@ -34944,10 +34944,10 @@
       <c r="Z61" s="19"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="128" t="s">
+      <c r="B62" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C62" s="16" t="s">
@@ -35004,7 +35004,7 @@
       <c r="T62" s="17">
         <v>261.37593588149525</v>
       </c>
-      <c r="U62" s="131"/>
+      <c r="U62" s="132"/>
       <c r="V62" s="22"/>
       <c r="W62" s="22"/>
       <c r="X62" s="22"/>
@@ -35012,8 +35012,8 @@
       <c r="Z62" s="19"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="129"/>
-      <c r="B63" s="129"/>
+      <c r="A63" s="130"/>
+      <c r="B63" s="130"/>
       <c r="C63" s="14" t="s">
         <v>49</v>
       </c>
@@ -35068,7 +35068,7 @@
       <c r="T63" s="15">
         <v>98.21848739495799</v>
       </c>
-      <c r="U63" s="131"/>
+      <c r="U63" s="132"/>
       <c r="V63" s="22"/>
       <c r="W63" s="22"/>
       <c r="X63" s="22"/>
@@ -35076,8 +35076,8 @@
       <c r="Z63" s="19"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="129"/>
-      <c r="B64" s="129"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="130"/>
       <c r="C64" s="16" t="s">
         <v>50</v>
       </c>
@@ -35132,7 +35132,7 @@
       <c r="T64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U64" s="131"/>
+      <c r="U64" s="132"/>
       <c r="V64" s="22"/>
       <c r="W64" s="22"/>
       <c r="X64" s="22"/>
@@ -35140,8 +35140,8 @@
       <c r="Z64" s="19"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="129"/>
-      <c r="B65" s="130"/>
+      <c r="A65" s="130"/>
+      <c r="B65" s="131"/>
       <c r="C65" s="24" t="s">
         <v>51</v>
       </c>
@@ -35196,7 +35196,7 @@
       <c r="T65" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U65" s="131"/>
+      <c r="U65" s="132"/>
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
       <c r="X65" s="22"/>
@@ -35204,8 +35204,8 @@
       <c r="Z65" s="19"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="129"/>
-      <c r="B66" s="129" t="s">
+      <c r="A66" s="130"/>
+      <c r="B66" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="16" t="s">
@@ -35262,7 +35262,7 @@
       <c r="T66" s="17">
         <v>4.7409050656123366</v>
       </c>
-      <c r="U66" s="131"/>
+      <c r="U66" s="132"/>
       <c r="V66" s="22"/>
       <c r="W66" s="22"/>
       <c r="X66" s="22"/>
@@ -35270,8 +35270,8 @@
       <c r="Z66" s="19"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="129"/>
-      <c r="B67" s="129"/>
+      <c r="A67" s="130"/>
+      <c r="B67" s="130"/>
       <c r="C67" s="14" t="s">
         <v>49</v>
       </c>
@@ -35326,7 +35326,7 @@
       <c r="T67" s="15">
         <v>1.7815126050420169</v>
       </c>
-      <c r="U67" s="131"/>
+      <c r="U67" s="132"/>
       <c r="V67" s="22"/>
       <c r="W67" s="22"/>
       <c r="X67" s="22"/>
@@ -35334,8 +35334,8 @@
       <c r="Z67" s="19"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="129"/>
-      <c r="B68" s="129"/>
+      <c r="A68" s="130"/>
+      <c r="B68" s="130"/>
       <c r="C68" s="16" t="s">
         <v>50</v>
       </c>
@@ -35390,7 +35390,7 @@
       <c r="T68" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U68" s="131"/>
+      <c r="U68" s="132"/>
       <c r="V68" s="22"/>
       <c r="W68" s="22"/>
       <c r="X68" s="22"/>
@@ -35398,8 +35398,8 @@
       <c r="Z68" s="19"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="130"/>
-      <c r="B69" s="130"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="131"/>
       <c r="C69" s="24" t="s">
         <v>51</v>
       </c>
@@ -35454,7 +35454,7 @@
       <c r="T69" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U69" s="131"/>
+      <c r="U69" s="132"/>
       <c r="V69" s="22"/>
       <c r="W69" s="22"/>
       <c r="X69" s="22"/>
@@ -35462,10 +35462,10 @@
       <c r="Z69" s="19"/>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="128" t="s">
+      <c r="A70" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="128" t="s">
+      <c r="B70" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="16" t="s">
@@ -35522,7 +35522,7 @@
       <c r="T70" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U70" s="131"/>
+      <c r="U70" s="132"/>
       <c r="V70" s="22"/>
       <c r="W70" s="22"/>
       <c r="X70" s="22"/>
@@ -35530,8 +35530,8 @@
       <c r="Z70" s="19"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="129"/>
-      <c r="B71" s="129"/>
+      <c r="A71" s="130"/>
+      <c r="B71" s="130"/>
       <c r="C71" s="14" t="s">
         <v>49</v>
       </c>
@@ -35586,7 +35586,7 @@
       <c r="T71" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U71" s="131"/>
+      <c r="U71" s="132"/>
       <c r="V71" s="22"/>
       <c r="W71" s="22"/>
       <c r="X71" s="22"/>
@@ -35594,8 +35594,8 @@
       <c r="Z71" s="19"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="129"/>
-      <c r="B72" s="129"/>
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
       <c r="C72" s="16" t="s">
         <v>50</v>
       </c>
@@ -35650,7 +35650,7 @@
       <c r="T72" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U72" s="131"/>
+      <c r="U72" s="132"/>
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
       <c r="X72" s="22"/>
@@ -35658,8 +35658,8 @@
       <c r="Z72" s="19"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="129"/>
-      <c r="B73" s="130"/>
+      <c r="A73" s="130"/>
+      <c r="B73" s="131"/>
       <c r="C73" s="24" t="s">
         <v>51</v>
       </c>
@@ -35714,7 +35714,7 @@
       <c r="T73" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="U73" s="131"/>
+      <c r="U73" s="132"/>
       <c r="V73" s="22"/>
       <c r="W73" s="22"/>
       <c r="X73" s="22"/>
@@ -35722,8 +35722,8 @@
       <c r="Z73" s="19"/>
     </row>
     <row r="74" spans="1:26">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129" t="s">
+      <c r="A74" s="130"/>
+      <c r="B74" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C74" s="16" t="s">
@@ -35780,7 +35780,7 @@
       <c r="T74" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U74" s="131"/>
+      <c r="U74" s="132"/>
       <c r="V74" s="22"/>
       <c r="W74" s="22"/>
       <c r="X74" s="22"/>
@@ -35788,8 +35788,8 @@
       <c r="Z74" s="19"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="129"/>
-      <c r="B75" s="129"/>
+      <c r="A75" s="130"/>
+      <c r="B75" s="130"/>
       <c r="C75" s="14" t="s">
         <v>49</v>
       </c>
@@ -35844,7 +35844,7 @@
       <c r="T75" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U75" s="131"/>
+      <c r="U75" s="132"/>
       <c r="V75" s="22"/>
       <c r="W75" s="22"/>
       <c r="X75" s="22"/>
@@ -35852,8 +35852,8 @@
       <c r="Z75" s="19"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="129"/>
-      <c r="B76" s="129"/>
+      <c r="A76" s="130"/>
+      <c r="B76" s="130"/>
       <c r="C76" s="16" t="s">
         <v>50</v>
       </c>
@@ -35908,7 +35908,7 @@
       <c r="T76" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U76" s="131"/>
+      <c r="U76" s="132"/>
       <c r="V76" s="22"/>
       <c r="W76" s="22"/>
       <c r="X76" s="22"/>
@@ -35916,8 +35916,8 @@
       <c r="Z76" s="19"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="130"/>
-      <c r="B77" s="130"/>
+      <c r="A77" s="131"/>
+      <c r="B77" s="131"/>
       <c r="C77" s="24" t="s">
         <v>51</v>
       </c>
@@ -35972,7 +35972,7 @@
       <c r="T77" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="U77" s="131"/>
+      <c r="U77" s="132"/>
       <c r="V77" s="22"/>
       <c r="W77" s="22"/>
       <c r="X77" s="22"/>
@@ -35980,10 +35980,10 @@
       <c r="Z77" s="19"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="128" t="s">
+      <c r="A78" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="128" t="s">
+      <c r="B78" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C78" s="16" t="s">
@@ -36040,7 +36040,7 @@
       <c r="T78" s="17">
         <v>194.68053044002411</v>
       </c>
-      <c r="U78" s="131"/>
+      <c r="U78" s="132"/>
       <c r="V78" s="22"/>
       <c r="W78" s="22"/>
       <c r="X78" s="22"/>
@@ -36048,8 +36048,8 @@
       <c r="Z78" s="19"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="129"/>
-      <c r="B79" s="129"/>
+      <c r="A79" s="130"/>
+      <c r="B79" s="130"/>
       <c r="C79" s="14" t="s">
         <v>49</v>
       </c>
@@ -36104,7 +36104,7 @@
       <c r="T79" s="15">
         <v>66.452342986471891</v>
       </c>
-      <c r="U79" s="131"/>
+      <c r="U79" s="132"/>
       <c r="V79" s="22"/>
       <c r="W79" s="22"/>
       <c r="X79" s="22"/>
@@ -36112,8 +36112,8 @@
       <c r="Z79" s="19"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="129"/>
-      <c r="B80" s="129"/>
+      <c r="A80" s="130"/>
+      <c r="B80" s="130"/>
       <c r="C80" s="16" t="s">
         <v>50</v>
       </c>
@@ -36168,7 +36168,7 @@
       <c r="T80" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U80" s="131"/>
+      <c r="U80" s="132"/>
       <c r="V80" s="22"/>
       <c r="W80" s="22"/>
       <c r="X80" s="22"/>
@@ -36176,8 +36176,8 @@
       <c r="Z80" s="19"/>
     </row>
     <row r="81" spans="1:26">
-      <c r="A81" s="129"/>
-      <c r="B81" s="130"/>
+      <c r="A81" s="130"/>
+      <c r="B81" s="131"/>
       <c r="C81" s="24" t="s">
         <v>51</v>
       </c>
@@ -36232,7 +36232,7 @@
       <c r="T81" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U81" s="131"/>
+      <c r="U81" s="132"/>
       <c r="V81" s="22"/>
       <c r="W81" s="22"/>
       <c r="X81" s="22"/>
@@ -36240,8 +36240,8 @@
       <c r="Z81" s="19"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="129"/>
-      <c r="B82" s="129" t="s">
+      <c r="A82" s="130"/>
+      <c r="B82" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C82" s="16" t="s">
@@ -36298,7 +36298,7 @@
       <c r="T82" s="17">
         <v>98.282097649186255</v>
       </c>
-      <c r="U82" s="131"/>
+      <c r="U82" s="132"/>
       <c r="V82" s="22"/>
       <c r="W82" s="22"/>
       <c r="X82" s="22"/>
@@ -36306,8 +36306,8 @@
       <c r="Z82" s="19"/>
     </row>
     <row r="83" spans="1:26">
-      <c r="A83" s="129"/>
-      <c r="B83" s="129"/>
+      <c r="A83" s="130"/>
+      <c r="B83" s="130"/>
       <c r="C83" s="14" t="s">
         <v>49</v>
       </c>
@@ -36362,7 +36362,7 @@
       <c r="T83" s="15">
         <v>33.547657013528109</v>
       </c>
-      <c r="U83" s="131"/>
+      <c r="U83" s="132"/>
       <c r="V83" s="22"/>
       <c r="W83" s="22"/>
       <c r="X83" s="22"/>
@@ -36370,8 +36370,8 @@
       <c r="Z83" s="19"/>
     </row>
     <row r="84" spans="1:26">
-      <c r="A84" s="129"/>
-      <c r="B84" s="129"/>
+      <c r="A84" s="130"/>
+      <c r="B84" s="130"/>
       <c r="C84" s="16" t="s">
         <v>50</v>
       </c>
@@ -36426,7 +36426,7 @@
       <c r="T84" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U84" s="131"/>
+      <c r="U84" s="132"/>
       <c r="V84" s="22"/>
       <c r="W84" s="22"/>
       <c r="X84" s="22"/>
@@ -36434,8 +36434,8 @@
       <c r="Z84" s="19"/>
     </row>
     <row r="85" spans="1:26">
-      <c r="A85" s="130"/>
-      <c r="B85" s="130"/>
+      <c r="A85" s="131"/>
+      <c r="B85" s="131"/>
       <c r="C85" s="24" t="s">
         <v>51</v>
       </c>
@@ -36490,7 +36490,7 @@
       <c r="T85" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U85" s="131"/>
+      <c r="U85" s="132"/>
       <c r="V85" s="22"/>
       <c r="W85" s="22"/>
       <c r="X85" s="22"/>
@@ -36498,10 +36498,10 @@
       <c r="Z85" s="19"/>
     </row>
     <row r="86" spans="1:26">
-      <c r="A86" s="128" t="s">
+      <c r="A86" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="128" t="s">
+      <c r="B86" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="16" t="s">
@@ -36558,7 +36558,7 @@
       <c r="T86" s="17">
         <v>135.56680243577853</v>
       </c>
-      <c r="U86" s="131"/>
+      <c r="U86" s="132"/>
       <c r="V86" s="22"/>
       <c r="W86" s="22"/>
       <c r="X86" s="22"/>
@@ -36566,8 +36566,8 @@
       <c r="Z86" s="19"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="129"/>
-      <c r="B87" s="129"/>
+      <c r="A87" s="130"/>
+      <c r="B87" s="130"/>
       <c r="C87" s="14" t="s">
         <v>49</v>
       </c>
@@ -36622,7 +36622,7 @@
       <c r="T87" s="15">
         <v>69.121396553851213</v>
       </c>
-      <c r="U87" s="131"/>
+      <c r="U87" s="132"/>
       <c r="V87" s="22"/>
       <c r="W87" s="22"/>
       <c r="X87" s="22"/>
@@ -36630,8 +36630,8 @@
       <c r="Z87" s="19"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="129"/>
-      <c r="B88" s="129"/>
+      <c r="A88" s="130"/>
+      <c r="B88" s="130"/>
       <c r="C88" s="16" t="s">
         <v>50</v>
       </c>
@@ -36686,7 +36686,7 @@
       <c r="T88" s="17">
         <v>108.74357830232178</v>
       </c>
-      <c r="U88" s="131"/>
+      <c r="U88" s="132"/>
       <c r="V88" s="22"/>
       <c r="W88" s="22"/>
       <c r="X88" s="22"/>
@@ -36694,8 +36694,8 @@
       <c r="Z88" s="19"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="129"/>
-      <c r="B89" s="130"/>
+      <c r="A89" s="130"/>
+      <c r="B89" s="131"/>
       <c r="C89" s="24" t="s">
         <v>51</v>
       </c>
@@ -36750,7 +36750,7 @@
       <c r="T89" s="25">
         <v>88.559306328190274</v>
       </c>
-      <c r="U89" s="131"/>
+      <c r="U89" s="132"/>
       <c r="V89" s="22"/>
       <c r="W89" s="22"/>
       <c r="X89" s="22"/>
@@ -36758,8 +36758,8 @@
       <c r="Z89" s="19"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="129"/>
-      <c r="B90" s="129" t="s">
+      <c r="A90" s="130"/>
+      <c r="B90" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C90" s="16" t="s">
@@ -36816,7 +36816,7 @@
       <c r="T90" s="17">
         <v>60.561761503407674</v>
       </c>
-      <c r="U90" s="131"/>
+      <c r="U90" s="132"/>
       <c r="V90" s="22"/>
       <c r="W90" s="22"/>
       <c r="X90" s="22"/>
@@ -36824,8 +36824,8 @@
       <c r="Z90" s="19"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="129"/>
-      <c r="B91" s="129"/>
+      <c r="A91" s="130"/>
+      <c r="B91" s="130"/>
       <c r="C91" s="14" t="s">
         <v>49</v>
       </c>
@@ -36880,7 +36880,7 @@
       <c r="T91" s="15">
         <v>30.878603446148784</v>
       </c>
-      <c r="U91" s="131"/>
+      <c r="U91" s="132"/>
       <c r="V91" s="22"/>
       <c r="W91" s="22"/>
       <c r="X91" s="22"/>
@@ -36888,8 +36888,8 @@
       <c r="Z91" s="19"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="129"/>
-      <c r="B92" s="129"/>
+      <c r="A92" s="130"/>
+      <c r="B92" s="130"/>
       <c r="C92" s="16" t="s">
         <v>50</v>
       </c>
@@ -36944,7 +36944,7 @@
       <c r="T92" s="17">
         <v>31.446812052605292</v>
       </c>
-      <c r="U92" s="131"/>
+      <c r="U92" s="132"/>
       <c r="V92" s="22"/>
       <c r="W92" s="22"/>
       <c r="X92" s="22"/>
@@ -36952,8 +36952,8 @@
       <c r="Z92" s="19"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="130"/>
-      <c r="B93" s="130"/>
+      <c r="A93" s="131"/>
+      <c r="B93" s="131"/>
       <c r="C93" s="24" t="s">
         <v>51</v>
       </c>
@@ -37008,7 +37008,7 @@
       <c r="T93" s="25">
         <v>11.440693671809722</v>
       </c>
-      <c r="U93" s="131"/>
+      <c r="U93" s="132"/>
       <c r="V93" s="22"/>
       <c r="W93" s="22"/>
       <c r="X93" s="22"/>
@@ -37016,10 +37016,10 @@
       <c r="Z93" s="19"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="128" t="s">
+      <c r="A94" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="128" t="s">
+      <c r="B94" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C94" s="16" t="s">
@@ -37076,7 +37076,7 @@
       <c r="T94" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U94" s="131"/>
+      <c r="U94" s="132"/>
       <c r="V94" s="22"/>
       <c r="W94" s="22"/>
       <c r="X94" s="22"/>
@@ -37084,8 +37084,8 @@
       <c r="Z94" s="19"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="129"/>
-      <c r="B95" s="129"/>
+      <c r="A95" s="130"/>
+      <c r="B95" s="130"/>
       <c r="C95" s="14" t="s">
         <v>49</v>
       </c>
@@ -37140,7 +37140,7 @@
       <c r="T95" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U95" s="131"/>
+      <c r="U95" s="132"/>
       <c r="V95" s="22"/>
       <c r="W95" s="22"/>
       <c r="X95" s="22"/>
@@ -37148,8 +37148,8 @@
       <c r="Z95" s="19"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="129"/>
-      <c r="B96" s="129"/>
+      <c r="A96" s="130"/>
+      <c r="B96" s="130"/>
       <c r="C96" s="16" t="s">
         <v>50</v>
       </c>
@@ -37204,7 +37204,7 @@
       <c r="T96" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U96" s="131"/>
+      <c r="U96" s="132"/>
       <c r="V96" s="22"/>
       <c r="W96" s="22"/>
       <c r="X96" s="22"/>
@@ -37212,8 +37212,8 @@
       <c r="Z96" s="19"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="129"/>
-      <c r="B97" s="130"/>
+      <c r="A97" s="130"/>
+      <c r="B97" s="131"/>
       <c r="C97" s="24" t="s">
         <v>51</v>
       </c>
@@ -37268,7 +37268,7 @@
       <c r="T97" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U97" s="131"/>
+      <c r="U97" s="132"/>
       <c r="V97" s="22"/>
       <c r="W97" s="22"/>
       <c r="X97" s="22"/>
@@ -37276,8 +37276,8 @@
       <c r="Z97" s="19"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="129"/>
-      <c r="B98" s="129" t="s">
+      <c r="A98" s="130"/>
+      <c r="B98" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C98" s="16" t="s">
@@ -37334,7 +37334,7 @@
       <c r="T98" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U98" s="131"/>
+      <c r="U98" s="132"/>
       <c r="V98" s="22"/>
       <c r="W98" s="22"/>
       <c r="X98" s="22"/>
@@ -37342,8 +37342,8 @@
       <c r="Z98" s="19"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="129"/>
-      <c r="B99" s="129"/>
+      <c r="A99" s="130"/>
+      <c r="B99" s="130"/>
       <c r="C99" s="14" t="s">
         <v>49</v>
       </c>
@@ -37398,7 +37398,7 @@
       <c r="T99" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U99" s="131"/>
+      <c r="U99" s="132"/>
       <c r="V99" s="22"/>
       <c r="W99" s="22"/>
       <c r="X99" s="22"/>
@@ -37406,8 +37406,8 @@
       <c r="Z99" s="19"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="129"/>
-      <c r="B100" s="129"/>
+      <c r="A100" s="130"/>
+      <c r="B100" s="130"/>
       <c r="C100" s="16" t="s">
         <v>50</v>
       </c>
@@ -37462,7 +37462,7 @@
       <c r="T100" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U100" s="131"/>
+      <c r="U100" s="132"/>
       <c r="V100" s="22"/>
       <c r="W100" s="22"/>
       <c r="X100" s="22"/>
@@ -37470,8 +37470,8 @@
       <c r="Z100" s="19"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="130"/>
-      <c r="B101" s="130"/>
+      <c r="A101" s="131"/>
+      <c r="B101" s="131"/>
       <c r="C101" s="24" t="s">
         <v>51</v>
       </c>
@@ -37526,7 +37526,7 @@
       <c r="T101" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U101" s="131"/>
+      <c r="U101" s="132"/>
       <c r="V101" s="22"/>
       <c r="W101" s="22"/>
       <c r="X101" s="22"/>
@@ -37534,10 +37534,10 @@
       <c r="Z101" s="19"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="128" t="s">
+      <c r="A102" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="128" t="s">
+      <c r="B102" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="16" t="s">
@@ -37594,7 +37594,7 @@
       <c r="T102" s="17">
         <v>175.60478295193414</v>
       </c>
-      <c r="U102" s="131"/>
+      <c r="U102" s="132"/>
       <c r="V102" s="22"/>
       <c r="W102" s="22"/>
       <c r="X102" s="22"/>
@@ -37602,8 +37602,8 @@
       <c r="Z102" s="19"/>
     </row>
     <row r="103" spans="1:26">
-      <c r="A103" s="129"/>
-      <c r="B103" s="129"/>
+      <c r="A103" s="130"/>
+      <c r="B103" s="130"/>
       <c r="C103" s="14" t="s">
         <v>49</v>
       </c>
@@ -37658,7 +37658,7 @@
       <c r="T103" s="15">
         <v>74.745199345929606</v>
       </c>
-      <c r="U103" s="131"/>
+      <c r="U103" s="132"/>
       <c r="V103" s="22"/>
       <c r="W103" s="22"/>
       <c r="X103" s="22"/>
@@ -37666,8 +37666,8 @@
       <c r="Z103" s="19"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="129"/>
-      <c r="B104" s="129"/>
+      <c r="A104" s="130"/>
+      <c r="B104" s="130"/>
       <c r="C104" s="16" t="s">
         <v>50</v>
       </c>
@@ -37722,7 +37722,7 @@
       <c r="T104" s="17">
         <v>321.2</v>
       </c>
-      <c r="U104" s="131"/>
+      <c r="U104" s="132"/>
       <c r="V104" s="22"/>
       <c r="W104" s="22"/>
       <c r="X104" s="22"/>
@@ -37730,8 +37730,8 @@
       <c r="Z104" s="19"/>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="129"/>
-      <c r="B105" s="130"/>
+      <c r="A105" s="130"/>
+      <c r="B105" s="131"/>
       <c r="C105" s="24" t="s">
         <v>51</v>
       </c>
@@ -37786,7 +37786,7 @@
       <c r="T105" s="25">
         <v>92.112688938952715</v>
       </c>
-      <c r="U105" s="131"/>
+      <c r="U105" s="132"/>
       <c r="V105" s="22"/>
       <c r="W105" s="22"/>
       <c r="X105" s="22"/>
@@ -37794,8 +37794,8 @@
       <c r="Z105" s="19"/>
     </row>
     <row r="106" spans="1:26">
-      <c r="A106" s="129"/>
-      <c r="B106" s="129" t="s">
+      <c r="A106" s="130"/>
+      <c r="B106" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C106" s="16" t="s">
@@ -37852,7 +37852,7 @@
       <c r="T106" s="17">
         <v>59.333091973269376</v>
       </c>
-      <c r="U106" s="131"/>
+      <c r="U106" s="132"/>
       <c r="V106" s="22"/>
       <c r="W106" s="22"/>
       <c r="X106" s="22"/>
@@ -37860,8 +37860,8 @@
       <c r="Z106" s="19"/>
     </row>
     <row r="107" spans="1:26">
-      <c r="A107" s="129"/>
-      <c r="B107" s="129"/>
+      <c r="A107" s="130"/>
+      <c r="B107" s="130"/>
       <c r="C107" s="14" t="s">
         <v>49</v>
       </c>
@@ -37916,7 +37916,7 @@
       <c r="T107" s="15">
         <v>25.25480065407039</v>
       </c>
-      <c r="U107" s="131"/>
+      <c r="U107" s="132"/>
       <c r="V107" s="22"/>
       <c r="W107" s="22"/>
       <c r="X107" s="22"/>
@@ -37924,8 +37924,8 @@
       <c r="Z107" s="19"/>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="129"/>
-      <c r="B108" s="129"/>
+      <c r="A108" s="130"/>
+      <c r="B108" s="130"/>
       <c r="C108" s="16" t="s">
         <v>50</v>
       </c>
@@ -37980,7 +37980,7 @@
       <c r="T108" s="17">
         <v>81.400000000000006</v>
       </c>
-      <c r="U108" s="131"/>
+      <c r="U108" s="132"/>
       <c r="V108" s="22"/>
       <c r="W108" s="22"/>
       <c r="X108" s="22"/>
@@ -37988,8 +37988,8 @@
       <c r="Z108" s="19"/>
     </row>
     <row r="109" spans="1:26">
-      <c r="A109" s="130"/>
-      <c r="B109" s="130"/>
+      <c r="A109" s="131"/>
+      <c r="B109" s="131"/>
       <c r="C109" s="24" t="s">
         <v>51</v>
       </c>
@@ -38044,7 +38044,7 @@
       <c r="T109" s="25">
         <v>7.8873110610472841</v>
       </c>
-      <c r="U109" s="131"/>
+      <c r="U109" s="132"/>
       <c r="V109" s="22"/>
       <c r="W109" s="22"/>
       <c r="X109" s="22"/>
@@ -38052,10 +38052,10 @@
       <c r="Z109" s="19"/>
     </row>
     <row r="110" spans="1:26">
-      <c r="A110" s="128" t="s">
+      <c r="A110" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="128" t="s">
+      <c r="B110" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C110" s="16" t="s">
@@ -38112,7 +38112,7 @@
       <c r="T110" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U110" s="131"/>
+      <c r="U110" s="132"/>
       <c r="V110" s="22"/>
       <c r="W110" s="22"/>
       <c r="X110" s="22"/>
@@ -38120,8 +38120,8 @@
       <c r="Z110" s="19"/>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="129"/>
-      <c r="B111" s="129"/>
+      <c r="A111" s="130"/>
+      <c r="B111" s="130"/>
       <c r="C111" s="14" t="s">
         <v>49</v>
       </c>
@@ -38176,7 +38176,7 @@
       <c r="T111" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U111" s="131"/>
+      <c r="U111" s="132"/>
       <c r="V111" s="22"/>
       <c r="W111" s="22"/>
       <c r="X111" s="22"/>
@@ -38184,8 +38184,8 @@
       <c r="Z111" s="19"/>
     </row>
     <row r="112" spans="1:26">
-      <c r="A112" s="129"/>
-      <c r="B112" s="129"/>
+      <c r="A112" s="130"/>
+      <c r="B112" s="130"/>
       <c r="C112" s="16" t="s">
         <v>50</v>
       </c>
@@ -38240,7 +38240,7 @@
       <c r="T112" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U112" s="131"/>
+      <c r="U112" s="132"/>
       <c r="V112" s="22"/>
       <c r="W112" s="22"/>
       <c r="X112" s="22"/>
@@ -38248,8 +38248,8 @@
       <c r="Z112" s="19"/>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="129"/>
-      <c r="B113" s="130"/>
+      <c r="A113" s="130"/>
+      <c r="B113" s="131"/>
       <c r="C113" s="24" t="s">
         <v>51</v>
       </c>
@@ -38304,7 +38304,7 @@
       <c r="T113" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U113" s="131"/>
+      <c r="U113" s="132"/>
       <c r="V113" s="22"/>
       <c r="W113" s="22"/>
       <c r="X113" s="22"/>
@@ -38312,8 +38312,8 @@
       <c r="Z113" s="19"/>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="129"/>
-      <c r="B114" s="129" t="s">
+      <c r="A114" s="130"/>
+      <c r="B114" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C114" s="16" t="s">
@@ -38370,7 +38370,7 @@
       <c r="T114" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U114" s="131"/>
+      <c r="U114" s="132"/>
       <c r="V114" s="22"/>
       <c r="W114" s="22"/>
       <c r="X114" s="22"/>
@@ -38378,8 +38378,8 @@
       <c r="Z114" s="19"/>
     </row>
     <row r="115" spans="1:26">
-      <c r="A115" s="129"/>
-      <c r="B115" s="129"/>
+      <c r="A115" s="130"/>
+      <c r="B115" s="130"/>
       <c r="C115" s="14" t="s">
         <v>49</v>
       </c>
@@ -38434,7 +38434,7 @@
       <c r="T115" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U115" s="131"/>
+      <c r="U115" s="132"/>
       <c r="V115" s="22"/>
       <c r="W115" s="22"/>
       <c r="X115" s="22"/>
@@ -38442,8 +38442,8 @@
       <c r="Z115" s="19"/>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="129"/>
-      <c r="B116" s="129"/>
+      <c r="A116" s="130"/>
+      <c r="B116" s="130"/>
       <c r="C116" s="16" t="s">
         <v>50</v>
       </c>
@@ -38498,7 +38498,7 @@
       <c r="T116" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U116" s="131"/>
+      <c r="U116" s="132"/>
       <c r="V116" s="22"/>
       <c r="W116" s="22"/>
       <c r="X116" s="22"/>
@@ -38506,8 +38506,8 @@
       <c r="Z116" s="19"/>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="130"/>
-      <c r="B117" s="130"/>
+      <c r="A117" s="131"/>
+      <c r="B117" s="131"/>
       <c r="C117" s="24" t="s">
         <v>51</v>
       </c>
@@ -38562,7 +38562,7 @@
       <c r="T117" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U117" s="131"/>
+      <c r="U117" s="132"/>
       <c r="V117" s="22"/>
       <c r="W117" s="22"/>
       <c r="X117" s="22"/>
@@ -38570,10 +38570,10 @@
       <c r="Z117" s="19"/>
     </row>
     <row r="118" spans="1:26">
-      <c r="A118" s="128" t="s">
+      <c r="A118" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B118" s="128" t="s">
+      <c r="B118" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C118" s="16" t="s">
@@ -38630,7 +38630,7 @@
       <c r="T118" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U118" s="131"/>
+      <c r="U118" s="132"/>
       <c r="V118" s="22"/>
       <c r="W118" s="22"/>
       <c r="X118" s="22"/>
@@ -38638,8 +38638,8 @@
       <c r="Z118" s="19"/>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="129"/>
-      <c r="B119" s="129"/>
+      <c r="A119" s="130"/>
+      <c r="B119" s="130"/>
       <c r="C119" s="14" t="s">
         <v>49</v>
       </c>
@@ -38694,7 +38694,7 @@
       <c r="T119" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U119" s="131"/>
+      <c r="U119" s="132"/>
       <c r="V119" s="22"/>
       <c r="W119" s="22"/>
       <c r="X119" s="22"/>
@@ -38702,8 +38702,8 @@
       <c r="Z119" s="19"/>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="129"/>
-      <c r="B120" s="129"/>
+      <c r="A120" s="130"/>
+      <c r="B120" s="130"/>
       <c r="C120" s="16" t="s">
         <v>50</v>
       </c>
@@ -38758,7 +38758,7 @@
       <c r="T120" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U120" s="131"/>
+      <c r="U120" s="132"/>
       <c r="V120" s="22"/>
       <c r="W120" s="22"/>
       <c r="X120" s="22"/>
@@ -38766,8 +38766,8 @@
       <c r="Z120" s="19"/>
     </row>
     <row r="121" spans="1:26">
-      <c r="A121" s="129"/>
-      <c r="B121" s="130"/>
+      <c r="A121" s="130"/>
+      <c r="B121" s="131"/>
       <c r="C121" s="24" t="s">
         <v>51</v>
       </c>
@@ -38822,7 +38822,7 @@
       <c r="T121" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U121" s="131"/>
+      <c r="U121" s="132"/>
       <c r="V121" s="22"/>
       <c r="W121" s="22"/>
       <c r="X121" s="22"/>
@@ -38830,8 +38830,8 @@
       <c r="Z121" s="19"/>
     </row>
     <row r="122" spans="1:26">
-      <c r="A122" s="129"/>
-      <c r="B122" s="129" t="s">
+      <c r="A122" s="130"/>
+      <c r="B122" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C122" s="16" t="s">
@@ -38888,7 +38888,7 @@
       <c r="T122" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U122" s="131"/>
+      <c r="U122" s="132"/>
       <c r="V122" s="22"/>
       <c r="W122" s="22"/>
       <c r="X122" s="22"/>
@@ -38896,8 +38896,8 @@
       <c r="Z122" s="19"/>
     </row>
     <row r="123" spans="1:26">
-      <c r="A123" s="129"/>
-      <c r="B123" s="129"/>
+      <c r="A123" s="130"/>
+      <c r="B123" s="130"/>
       <c r="C123" s="14" t="s">
         <v>49</v>
       </c>
@@ -38952,7 +38952,7 @@
       <c r="T123" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U123" s="131"/>
+      <c r="U123" s="132"/>
       <c r="V123" s="22"/>
       <c r="W123" s="22"/>
       <c r="X123" s="22"/>
@@ -38960,8 +38960,8 @@
       <c r="Z123" s="19"/>
     </row>
     <row r="124" spans="1:26">
-      <c r="A124" s="129"/>
-      <c r="B124" s="129"/>
+      <c r="A124" s="130"/>
+      <c r="B124" s="130"/>
       <c r="C124" s="16" t="s">
         <v>50</v>
       </c>
@@ -39016,7 +39016,7 @@
       <c r="T124" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U124" s="131"/>
+      <c r="U124" s="132"/>
       <c r="V124" s="22"/>
       <c r="W124" s="22"/>
       <c r="X124" s="22"/>
@@ -39024,8 +39024,8 @@
       <c r="Z124" s="19"/>
     </row>
     <row r="125" spans="1:26">
-      <c r="A125" s="130"/>
-      <c r="B125" s="130"/>
+      <c r="A125" s="131"/>
+      <c r="B125" s="131"/>
       <c r="C125" s="24" t="s">
         <v>51</v>
       </c>
@@ -39080,7 +39080,7 @@
       <c r="T125" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U125" s="131"/>
+      <c r="U125" s="132"/>
       <c r="V125" s="22"/>
       <c r="W125" s="22"/>
       <c r="X125" s="22"/>
@@ -39088,10 +39088,10 @@
       <c r="Z125" s="19"/>
     </row>
     <row r="126" spans="1:26">
-      <c r="A126" s="128" t="s">
+      <c r="A126" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="128" t="s">
+      <c r="B126" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C126" s="16" t="s">
@@ -39148,7 +39148,7 @@
       <c r="T126" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U126" s="131"/>
+      <c r="U126" s="132"/>
       <c r="V126" s="22"/>
       <c r="W126" s="22"/>
       <c r="X126" s="22"/>
@@ -39156,8 +39156,8 @@
       <c r="Z126" s="19"/>
     </row>
     <row r="127" spans="1:26">
-      <c r="A127" s="129"/>
-      <c r="B127" s="129"/>
+      <c r="A127" s="130"/>
+      <c r="B127" s="130"/>
       <c r="C127" s="14" t="s">
         <v>49</v>
       </c>
@@ -39212,7 +39212,7 @@
       <c r="T127" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U127" s="131"/>
+      <c r="U127" s="132"/>
       <c r="V127" s="22"/>
       <c r="W127" s="22"/>
       <c r="X127" s="22"/>
@@ -39220,8 +39220,8 @@
       <c r="Z127" s="19"/>
     </row>
     <row r="128" spans="1:26">
-      <c r="A128" s="129"/>
-      <c r="B128" s="129"/>
+      <c r="A128" s="130"/>
+      <c r="B128" s="130"/>
       <c r="C128" s="16" t="s">
         <v>50</v>
       </c>
@@ -39276,7 +39276,7 @@
       <c r="T128" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U128" s="131"/>
+      <c r="U128" s="132"/>
       <c r="V128" s="22"/>
       <c r="W128" s="22"/>
       <c r="X128" s="22"/>
@@ -39284,8 +39284,8 @@
       <c r="Z128" s="19"/>
     </row>
     <row r="129" spans="1:26">
-      <c r="A129" s="129"/>
-      <c r="B129" s="130"/>
+      <c r="A129" s="130"/>
+      <c r="B129" s="131"/>
       <c r="C129" s="24" t="s">
         <v>51</v>
       </c>
@@ -39340,7 +39340,7 @@
       <c r="T129" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U129" s="131"/>
+      <c r="U129" s="132"/>
       <c r="V129" s="22"/>
       <c r="W129" s="22"/>
       <c r="X129" s="22"/>
@@ -39348,8 +39348,8 @@
       <c r="Z129" s="19"/>
     </row>
     <row r="130" spans="1:26">
-      <c r="A130" s="129"/>
-      <c r="B130" s="129" t="s">
+      <c r="A130" s="130"/>
+      <c r="B130" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C130" s="16" t="s">
@@ -39406,7 +39406,7 @@
       <c r="T130" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U130" s="131"/>
+      <c r="U130" s="132"/>
       <c r="V130" s="22"/>
       <c r="W130" s="22"/>
       <c r="X130" s="22"/>
@@ -39414,8 +39414,8 @@
       <c r="Z130" s="19"/>
     </row>
     <row r="131" spans="1:26">
-      <c r="A131" s="129"/>
-      <c r="B131" s="129"/>
+      <c r="A131" s="130"/>
+      <c r="B131" s="130"/>
       <c r="C131" s="14" t="s">
         <v>49</v>
       </c>
@@ -39470,7 +39470,7 @@
       <c r="T131" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U131" s="131"/>
+      <c r="U131" s="132"/>
       <c r="V131" s="22"/>
       <c r="W131" s="22"/>
       <c r="X131" s="22"/>
@@ -39478,8 +39478,8 @@
       <c r="Z131" s="19"/>
     </row>
     <row r="132" spans="1:26">
-      <c r="A132" s="129"/>
-      <c r="B132" s="129"/>
+      <c r="A132" s="130"/>
+      <c r="B132" s="130"/>
       <c r="C132" s="16" t="s">
         <v>50</v>
       </c>
@@ -39534,7 +39534,7 @@
       <c r="T132" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U132" s="131"/>
+      <c r="U132" s="132"/>
       <c r="V132" s="22"/>
       <c r="W132" s="22"/>
       <c r="X132" s="22"/>
@@ -39542,8 +39542,8 @@
       <c r="Z132" s="19"/>
     </row>
     <row r="133" spans="1:26">
-      <c r="A133" s="130"/>
-      <c r="B133" s="130"/>
+      <c r="A133" s="131"/>
+      <c r="B133" s="131"/>
       <c r="C133" s="24" t="s">
         <v>51</v>
       </c>
@@ -39598,7 +39598,7 @@
       <c r="T133" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U133" s="131"/>
+      <c r="U133" s="132"/>
       <c r="V133" s="22"/>
       <c r="W133" s="22"/>
       <c r="X133" s="22"/>
@@ -39606,10 +39606,10 @@
       <c r="Z133" s="19"/>
     </row>
     <row r="134" spans="1:26">
-      <c r="A134" s="128" t="s">
+      <c r="A134" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B134" s="128" t="s">
+      <c r="B134" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C134" s="16" t="s">
@@ -39666,7 +39666,7 @@
       <c r="T134" s="17">
         <v>3.606933251202026</v>
       </c>
-      <c r="U134" s="131"/>
+      <c r="U134" s="132"/>
       <c r="V134" s="22"/>
       <c r="W134" s="22"/>
       <c r="X134" s="22"/>
@@ -39674,8 +39674,8 @@
       <c r="Z134" s="19"/>
     </row>
     <row r="135" spans="1:26">
-      <c r="A135" s="129"/>
-      <c r="B135" s="129"/>
+      <c r="A135" s="130"/>
+      <c r="B135" s="130"/>
       <c r="C135" s="14" t="s">
         <v>49</v>
       </c>
@@ -39730,7 +39730,7 @@
       <c r="T135" s="15">
         <v>71.676300578034684</v>
       </c>
-      <c r="U135" s="131"/>
+      <c r="U135" s="132"/>
       <c r="V135" s="22"/>
       <c r="W135" s="22"/>
       <c r="X135" s="22"/>
@@ -39738,8 +39738,8 @@
       <c r="Z135" s="19"/>
     </row>
     <row r="136" spans="1:26">
-      <c r="A136" s="129"/>
-      <c r="B136" s="129"/>
+      <c r="A136" s="130"/>
+      <c r="B136" s="130"/>
       <c r="C136" s="16" t="s">
         <v>50</v>
       </c>
@@ -39794,7 +39794,7 @@
       <c r="T136" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U136" s="131"/>
+      <c r="U136" s="132"/>
       <c r="V136" s="22"/>
       <c r="W136" s="22"/>
       <c r="X136" s="22"/>
@@ -39802,8 +39802,8 @@
       <c r="Z136" s="19"/>
     </row>
     <row r="137" spans="1:26">
-      <c r="A137" s="129"/>
-      <c r="B137" s="130"/>
+      <c r="A137" s="130"/>
+      <c r="B137" s="131"/>
       <c r="C137" s="24" t="s">
         <v>51</v>
       </c>
@@ -39858,7 +39858,7 @@
       <c r="T137" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U137" s="131"/>
+      <c r="U137" s="132"/>
       <c r="V137" s="22"/>
       <c r="W137" s="22"/>
       <c r="X137" s="22"/>
@@ -39866,8 +39866,8 @@
       <c r="Z137" s="19"/>
     </row>
     <row r="138" spans="1:26">
-      <c r="A138" s="129"/>
-      <c r="B138" s="129" t="s">
+      <c r="A138" s="130"/>
+      <c r="B138" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C138" s="16" t="s">
@@ -39924,7 +39924,7 @@
       <c r="T138" s="17">
         <v>1.4253203976524136</v>
       </c>
-      <c r="U138" s="131"/>
+      <c r="U138" s="132"/>
       <c r="V138" s="22"/>
       <c r="W138" s="22"/>
       <c r="X138" s="22"/>
@@ -39932,8 +39932,8 @@
       <c r="Z138" s="19"/>
     </row>
     <row r="139" spans="1:26">
-      <c r="A139" s="129"/>
-      <c r="B139" s="129"/>
+      <c r="A139" s="130"/>
+      <c r="B139" s="130"/>
       <c r="C139" s="14" t="s">
         <v>49</v>
       </c>
@@ -39988,7 +39988,7 @@
       <c r="T139" s="15">
         <v>28.323699421965319</v>
       </c>
-      <c r="U139" s="131"/>
+      <c r="U139" s="132"/>
       <c r="V139" s="22"/>
       <c r="W139" s="22"/>
       <c r="X139" s="22"/>
@@ -39996,8 +39996,8 @@
       <c r="Z139" s="19"/>
     </row>
     <row r="140" spans="1:26">
-      <c r="A140" s="129"/>
-      <c r="B140" s="129"/>
+      <c r="A140" s="130"/>
+      <c r="B140" s="130"/>
       <c r="C140" s="16" t="s">
         <v>50</v>
       </c>
@@ -40052,7 +40052,7 @@
       <c r="T140" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U140" s="131"/>
+      <c r="U140" s="132"/>
       <c r="V140" s="22"/>
       <c r="W140" s="22"/>
       <c r="X140" s="22"/>
@@ -40060,8 +40060,8 @@
       <c r="Z140" s="19"/>
     </row>
     <row r="141" spans="1:26">
-      <c r="A141" s="130"/>
-      <c r="B141" s="130"/>
+      <c r="A141" s="131"/>
+      <c r="B141" s="131"/>
       <c r="C141" s="24" t="s">
         <v>51</v>
       </c>
@@ -40116,7 +40116,7 @@
       <c r="T141" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U141" s="131"/>
+      <c r="U141" s="132"/>
       <c r="V141" s="22"/>
       <c r="W141" s="22"/>
       <c r="X141" s="22"/>
@@ -40124,10 +40124,10 @@
       <c r="Z141" s="19"/>
     </row>
     <row r="142" spans="1:26">
-      <c r="A142" s="128" t="s">
+      <c r="A142" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="B142" s="128" t="s">
+      <c r="B142" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C142" s="16" t="s">
@@ -40184,7 +40184,7 @@
       <c r="T142" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U142" s="131"/>
+      <c r="U142" s="132"/>
       <c r="V142" s="22"/>
       <c r="W142" s="22"/>
       <c r="X142" s="22"/>
@@ -40192,8 +40192,8 @@
       <c r="Z142" s="19"/>
     </row>
     <row r="143" spans="1:26">
-      <c r="A143" s="129"/>
-      <c r="B143" s="129"/>
+      <c r="A143" s="130"/>
+      <c r="B143" s="130"/>
       <c r="C143" s="14" t="s">
         <v>49</v>
       </c>
@@ -40248,7 +40248,7 @@
       <c r="T143" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U143" s="131"/>
+      <c r="U143" s="132"/>
       <c r="V143" s="22"/>
       <c r="W143" s="22"/>
       <c r="X143" s="22"/>
@@ -40256,8 +40256,8 @@
       <c r="Z143" s="19"/>
     </row>
     <row r="144" spans="1:26">
-      <c r="A144" s="129"/>
-      <c r="B144" s="129"/>
+      <c r="A144" s="130"/>
+      <c r="B144" s="130"/>
       <c r="C144" s="16" t="s">
         <v>50</v>
       </c>
@@ -40312,7 +40312,7 @@
       <c r="T144" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U144" s="131"/>
+      <c r="U144" s="132"/>
       <c r="V144" s="22"/>
       <c r="W144" s="22"/>
       <c r="X144" s="22"/>
@@ -40320,8 +40320,8 @@
       <c r="Z144" s="19"/>
     </row>
     <row r="145" spans="1:26">
-      <c r="A145" s="129"/>
-      <c r="B145" s="130"/>
+      <c r="A145" s="130"/>
+      <c r="B145" s="131"/>
       <c r="C145" s="24" t="s">
         <v>51</v>
       </c>
@@ -40376,7 +40376,7 @@
       <c r="T145" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U145" s="131"/>
+      <c r="U145" s="132"/>
       <c r="V145" s="22"/>
       <c r="W145" s="22"/>
       <c r="X145" s="22"/>
@@ -40384,8 +40384,8 @@
       <c r="Z145" s="19"/>
     </row>
     <row r="146" spans="1:26">
-      <c r="A146" s="129"/>
-      <c r="B146" s="129" t="s">
+      <c r="A146" s="130"/>
+      <c r="B146" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C146" s="16" t="s">
@@ -40442,7 +40442,7 @@
       <c r="T146" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U146" s="131"/>
+      <c r="U146" s="132"/>
       <c r="V146" s="22"/>
       <c r="W146" s="22"/>
       <c r="X146" s="22"/>
@@ -40450,8 +40450,8 @@
       <c r="Z146" s="19"/>
     </row>
     <row r="147" spans="1:26">
-      <c r="A147" s="129"/>
-      <c r="B147" s="129"/>
+      <c r="A147" s="130"/>
+      <c r="B147" s="130"/>
       <c r="C147" s="14" t="s">
         <v>49</v>
       </c>
@@ -40506,7 +40506,7 @@
       <c r="T147" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U147" s="131"/>
+      <c r="U147" s="132"/>
       <c r="V147" s="22"/>
       <c r="W147" s="22"/>
       <c r="X147" s="22"/>
@@ -40514,8 +40514,8 @@
       <c r="Z147" s="19"/>
     </row>
     <row r="148" spans="1:26">
-      <c r="A148" s="129"/>
-      <c r="B148" s="129"/>
+      <c r="A148" s="130"/>
+      <c r="B148" s="130"/>
       <c r="C148" s="16" t="s">
         <v>50</v>
       </c>
@@ -40570,7 +40570,7 @@
       <c r="T148" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U148" s="131"/>
+      <c r="U148" s="132"/>
       <c r="V148" s="22"/>
       <c r="W148" s="22"/>
       <c r="X148" s="22"/>
@@ -40578,8 +40578,8 @@
       <c r="Z148" s="19"/>
     </row>
     <row r="149" spans="1:26">
-      <c r="A149" s="130"/>
-      <c r="B149" s="130"/>
+      <c r="A149" s="131"/>
+      <c r="B149" s="131"/>
       <c r="C149" s="24" t="s">
         <v>51</v>
       </c>
@@ -40634,7 +40634,7 @@
       <c r="T149" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U149" s="131"/>
+      <c r="U149" s="132"/>
       <c r="V149" s="22"/>
       <c r="W149" s="22"/>
       <c r="X149" s="22"/>
@@ -40642,10 +40642,10 @@
       <c r="Z149" s="19"/>
     </row>
     <row r="150" spans="1:26">
-      <c r="A150" s="128" t="s">
+      <c r="A150" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B150" s="128" t="s">
+      <c r="B150" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C150" s="16" t="s">
@@ -40702,7 +40702,7 @@
       <c r="T150" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U150" s="131"/>
+      <c r="U150" s="132"/>
       <c r="V150" s="22"/>
       <c r="W150" s="22"/>
       <c r="X150" s="22"/>
@@ -40710,8 +40710,8 @@
       <c r="Z150" s="19"/>
     </row>
     <row r="151" spans="1:26">
-      <c r="A151" s="129"/>
-      <c r="B151" s="129"/>
+      <c r="A151" s="130"/>
+      <c r="B151" s="130"/>
       <c r="C151" s="14" t="s">
         <v>49</v>
       </c>
@@ -40766,7 +40766,7 @@
       <c r="T151" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U151" s="131"/>
+      <c r="U151" s="132"/>
       <c r="V151" s="22"/>
       <c r="W151" s="22"/>
       <c r="X151" s="22"/>
@@ -40774,8 +40774,8 @@
       <c r="Z151" s="19"/>
     </row>
     <row r="152" spans="1:26">
-      <c r="A152" s="129"/>
-      <c r="B152" s="129"/>
+      <c r="A152" s="130"/>
+      <c r="B152" s="130"/>
       <c r="C152" s="16" t="s">
         <v>50</v>
       </c>
@@ -40830,7 +40830,7 @@
       <c r="T152" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U152" s="131"/>
+      <c r="U152" s="132"/>
       <c r="V152" s="22"/>
       <c r="W152" s="22"/>
       <c r="X152" s="22"/>
@@ -40838,8 +40838,8 @@
       <c r="Z152" s="19"/>
     </row>
     <row r="153" spans="1:26">
-      <c r="A153" s="129"/>
-      <c r="B153" s="130"/>
+      <c r="A153" s="130"/>
+      <c r="B153" s="131"/>
       <c r="C153" s="24" t="s">
         <v>51</v>
       </c>
@@ -40894,7 +40894,7 @@
       <c r="T153" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U153" s="131"/>
+      <c r="U153" s="132"/>
       <c r="V153" s="22"/>
       <c r="W153" s="22"/>
       <c r="X153" s="22"/>
@@ -40902,8 +40902,8 @@
       <c r="Z153" s="19"/>
     </row>
     <row r="154" spans="1:26">
-      <c r="A154" s="129"/>
-      <c r="B154" s="129" t="s">
+      <c r="A154" s="130"/>
+      <c r="B154" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C154" s="16" t="s">
@@ -40960,7 +40960,7 @@
       <c r="T154" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U154" s="131"/>
+      <c r="U154" s="132"/>
       <c r="V154" s="22"/>
       <c r="W154" s="22"/>
       <c r="X154" s="22"/>
@@ -40968,8 +40968,8 @@
       <c r="Z154" s="19"/>
     </row>
     <row r="155" spans="1:26">
-      <c r="A155" s="129"/>
-      <c r="B155" s="129"/>
+      <c r="A155" s="130"/>
+      <c r="B155" s="130"/>
       <c r="C155" s="14" t="s">
         <v>49</v>
       </c>
@@ -41024,7 +41024,7 @@
       <c r="T155" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U155" s="131"/>
+      <c r="U155" s="132"/>
       <c r="V155" s="22"/>
       <c r="W155" s="22"/>
       <c r="X155" s="22"/>
@@ -41032,8 +41032,8 @@
       <c r="Z155" s="19"/>
     </row>
     <row r="156" spans="1:26">
-      <c r="A156" s="129"/>
-      <c r="B156" s="129"/>
+      <c r="A156" s="130"/>
+      <c r="B156" s="130"/>
       <c r="C156" s="16" t="s">
         <v>50</v>
       </c>
@@ -41088,7 +41088,7 @@
       <c r="T156" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U156" s="131"/>
+      <c r="U156" s="132"/>
       <c r="V156" s="22"/>
       <c r="W156" s="22"/>
       <c r="X156" s="22"/>
@@ -41096,8 +41096,8 @@
       <c r="Z156" s="19"/>
     </row>
     <row r="157" spans="1:26">
-      <c r="A157" s="130"/>
-      <c r="B157" s="130"/>
+      <c r="A157" s="131"/>
+      <c r="B157" s="131"/>
       <c r="C157" s="24" t="s">
         <v>51</v>
       </c>
@@ -41152,7 +41152,7 @@
       <c r="T157" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U157" s="131"/>
+      <c r="U157" s="132"/>
       <c r="V157" s="22"/>
       <c r="W157" s="22"/>
       <c r="X157" s="22"/>
@@ -41160,10 +41160,10 @@
       <c r="Z157" s="19"/>
     </row>
     <row r="158" spans="1:26">
-      <c r="A158" s="128" t="s">
+      <c r="A158" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B158" s="128" t="s">
+      <c r="B158" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C158" s="16" t="s">
@@ -41210,7 +41210,7 @@
       <c r="T158" s="17">
         <v>46.4</v>
       </c>
-      <c r="U158" s="131"/>
+      <c r="U158" s="132"/>
       <c r="V158" s="22"/>
       <c r="W158" s="22"/>
       <c r="X158" s="22"/>
@@ -41218,8 +41218,8 @@
       <c r="Z158" s="19"/>
     </row>
     <row r="159" spans="1:26">
-      <c r="A159" s="129"/>
-      <c r="B159" s="129"/>
+      <c r="A159" s="130"/>
+      <c r="B159" s="130"/>
       <c r="C159" s="14" t="s">
         <v>49</v>
       </c>
@@ -41286,7 +41286,7 @@
         <f t="shared" si="0"/>
         <v>84.671532846715337</v>
       </c>
-      <c r="U159" s="131"/>
+      <c r="U159" s="132"/>
       <c r="V159" s="22"/>
       <c r="W159" s="22"/>
       <c r="X159" s="22"/>
@@ -41294,8 +41294,8 @@
       <c r="Z159" s="19"/>
     </row>
     <row r="160" spans="1:26">
-      <c r="A160" s="129"/>
-      <c r="B160" s="129"/>
+      <c r="A160" s="130"/>
+      <c r="B160" s="130"/>
       <c r="C160" s="16" t="s">
         <v>50</v>
       </c>
@@ -41350,7 +41350,7 @@
       <c r="T160" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U160" s="131"/>
+      <c r="U160" s="132"/>
       <c r="V160" s="22"/>
       <c r="W160" s="22"/>
       <c r="X160" s="22"/>
@@ -41358,8 +41358,8 @@
       <c r="Z160" s="19"/>
     </row>
     <row r="161" spans="1:26">
-      <c r="A161" s="129"/>
-      <c r="B161" s="130"/>
+      <c r="A161" s="130"/>
+      <c r="B161" s="131"/>
       <c r="C161" s="24" t="s">
         <v>51</v>
       </c>
@@ -41414,7 +41414,7 @@
       <c r="T161" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U161" s="131"/>
+      <c r="U161" s="132"/>
       <c r="V161" s="22"/>
       <c r="W161" s="22"/>
       <c r="X161" s="22"/>
@@ -41422,8 +41422,8 @@
       <c r="Z161" s="19"/>
     </row>
     <row r="162" spans="1:26">
-      <c r="A162" s="129"/>
-      <c r="B162" s="129" t="s">
+      <c r="A162" s="130"/>
+      <c r="B162" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C162" s="16" t="s">
@@ -41470,7 +41470,7 @@
       <c r="T162" s="17">
         <v>8.4</v>
       </c>
-      <c r="U162" s="131"/>
+      <c r="U162" s="132"/>
       <c r="V162" s="22"/>
       <c r="W162" s="22"/>
       <c r="X162" s="22"/>
@@ -41478,8 +41478,8 @@
       <c r="Z162" s="19"/>
     </row>
     <row r="163" spans="1:26">
-      <c r="A163" s="129"/>
-      <c r="B163" s="129"/>
+      <c r="A163" s="130"/>
+      <c r="B163" s="130"/>
       <c r="C163" s="14" t="s">
         <v>49</v>
       </c>
@@ -41546,7 +41546,7 @@
         <f t="shared" si="1"/>
         <v>15.328467153284663</v>
       </c>
-      <c r="U163" s="131"/>
+      <c r="U163" s="132"/>
       <c r="V163" s="22"/>
       <c r="W163" s="22"/>
       <c r="X163" s="22"/>
@@ -41554,8 +41554,8 @@
       <c r="Z163" s="19"/>
     </row>
     <row r="164" spans="1:26">
-      <c r="A164" s="129"/>
-      <c r="B164" s="129"/>
+      <c r="A164" s="130"/>
+      <c r="B164" s="130"/>
       <c r="C164" s="16" t="s">
         <v>50</v>
       </c>
@@ -41610,7 +41610,7 @@
       <c r="T164" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U164" s="131"/>
+      <c r="U164" s="132"/>
       <c r="V164" s="22"/>
       <c r="W164" s="22"/>
       <c r="X164" s="22"/>
@@ -41618,8 +41618,8 @@
       <c r="Z164" s="19"/>
     </row>
     <row r="165" spans="1:26">
-      <c r="A165" s="130"/>
-      <c r="B165" s="130"/>
+      <c r="A165" s="131"/>
+      <c r="B165" s="131"/>
       <c r="C165" s="24" t="s">
         <v>51</v>
       </c>
@@ -41674,7 +41674,7 @@
       <c r="T165" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U165" s="131"/>
+      <c r="U165" s="132"/>
       <c r="V165" s="22"/>
       <c r="W165" s="22"/>
       <c r="X165" s="22"/>
@@ -41682,10 +41682,10 @@
       <c r="Z165" s="19"/>
     </row>
     <row r="166" spans="1:26">
-      <c r="A166" s="128" t="s">
+      <c r="A166" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="B166" s="128" t="s">
+      <c r="B166" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C166" s="16" t="s">
@@ -41742,7 +41742,7 @@
       <c r="T166" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U166" s="131"/>
+      <c r="U166" s="132"/>
       <c r="V166" s="22"/>
       <c r="W166" s="22"/>
       <c r="X166" s="22"/>
@@ -41750,8 +41750,8 @@
       <c r="Z166" s="19"/>
     </row>
     <row r="167" spans="1:26">
-      <c r="A167" s="129"/>
-      <c r="B167" s="129"/>
+      <c r="A167" s="130"/>
+      <c r="B167" s="130"/>
       <c r="C167" s="14" t="s">
         <v>49</v>
       </c>
@@ -41806,7 +41806,7 @@
       <c r="T167" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U167" s="131"/>
+      <c r="U167" s="132"/>
       <c r="V167" s="22"/>
       <c r="W167" s="22"/>
       <c r="X167" s="22"/>
@@ -41814,8 +41814,8 @@
       <c r="Z167" s="19"/>
     </row>
     <row r="168" spans="1:26">
-      <c r="A168" s="129"/>
-      <c r="B168" s="129"/>
+      <c r="A168" s="130"/>
+      <c r="B168" s="130"/>
       <c r="C168" s="16" t="s">
         <v>50</v>
       </c>
@@ -41870,7 +41870,7 @@
       <c r="T168" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U168" s="131"/>
+      <c r="U168" s="132"/>
       <c r="V168" s="22"/>
       <c r="W168" s="22"/>
       <c r="X168" s="22"/>
@@ -41878,8 +41878,8 @@
       <c r="Z168" s="19"/>
     </row>
     <row r="169" spans="1:26">
-      <c r="A169" s="129"/>
-      <c r="B169" s="130"/>
+      <c r="A169" s="130"/>
+      <c r="B169" s="131"/>
       <c r="C169" s="24" t="s">
         <v>51</v>
       </c>
@@ -41934,7 +41934,7 @@
       <c r="T169" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U169" s="131"/>
+      <c r="U169" s="132"/>
       <c r="V169" s="22"/>
       <c r="W169" s="22"/>
       <c r="X169" s="22"/>
@@ -41942,8 +41942,8 @@
       <c r="Z169" s="19"/>
     </row>
     <row r="170" spans="1:26">
-      <c r="A170" s="129"/>
-      <c r="B170" s="129" t="s">
+      <c r="A170" s="130"/>
+      <c r="B170" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C170" s="16" t="s">
@@ -42000,7 +42000,7 @@
       <c r="T170" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U170" s="131"/>
+      <c r="U170" s="132"/>
       <c r="V170" s="22"/>
       <c r="W170" s="22"/>
       <c r="X170" s="22"/>
@@ -42008,8 +42008,8 @@
       <c r="Z170" s="19"/>
     </row>
     <row r="171" spans="1:26">
-      <c r="A171" s="129"/>
-      <c r="B171" s="129"/>
+      <c r="A171" s="130"/>
+      <c r="B171" s="130"/>
       <c r="C171" s="14" t="s">
         <v>49</v>
       </c>
@@ -42064,7 +42064,7 @@
       <c r="T171" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U171" s="131"/>
+      <c r="U171" s="132"/>
       <c r="V171" s="22"/>
       <c r="W171" s="22"/>
       <c r="X171" s="22"/>
@@ -42072,8 +42072,8 @@
       <c r="Z171" s="19"/>
     </row>
     <row r="172" spans="1:26">
-      <c r="A172" s="129"/>
-      <c r="B172" s="129"/>
+      <c r="A172" s="130"/>
+      <c r="B172" s="130"/>
       <c r="C172" s="16" t="s">
         <v>50</v>
       </c>
@@ -42128,7 +42128,7 @@
       <c r="T172" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U172" s="131"/>
+      <c r="U172" s="132"/>
       <c r="V172" s="22"/>
       <c r="W172" s="22"/>
       <c r="X172" s="22"/>
@@ -42136,8 +42136,8 @@
       <c r="Z172" s="19"/>
     </row>
     <row r="173" spans="1:26">
-      <c r="A173" s="130"/>
-      <c r="B173" s="130"/>
+      <c r="A173" s="131"/>
+      <c r="B173" s="131"/>
       <c r="C173" s="24" t="s">
         <v>51</v>
       </c>
@@ -42192,7 +42192,7 @@
       <c r="T173" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U173" s="131"/>
+      <c r="U173" s="132"/>
       <c r="V173" s="22"/>
       <c r="W173" s="22"/>
       <c r="X173" s="22"/>
@@ -42200,10 +42200,10 @@
       <c r="Z173" s="19"/>
     </row>
     <row r="174" spans="1:26">
-      <c r="A174" s="128" t="s">
+      <c r="A174" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="128" t="s">
+      <c r="B174" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C174" s="16" t="s">
@@ -42260,7 +42260,7 @@
       <c r="T174" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U174" s="131"/>
+      <c r="U174" s="132"/>
       <c r="V174" s="22"/>
       <c r="W174" s="22"/>
       <c r="X174" s="22"/>
@@ -42268,8 +42268,8 @@
       <c r="Z174" s="19"/>
     </row>
     <row r="175" spans="1:26">
-      <c r="A175" s="129"/>
-      <c r="B175" s="129"/>
+      <c r="A175" s="130"/>
+      <c r="B175" s="130"/>
       <c r="C175" s="14" t="s">
         <v>49</v>
       </c>
@@ -42324,7 +42324,7 @@
       <c r="T175" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U175" s="131"/>
+      <c r="U175" s="132"/>
       <c r="V175" s="22"/>
       <c r="W175" s="22"/>
       <c r="X175" s="22"/>
@@ -42332,8 +42332,8 @@
       <c r="Z175" s="19"/>
     </row>
     <row r="176" spans="1:26">
-      <c r="A176" s="129"/>
-      <c r="B176" s="129"/>
+      <c r="A176" s="130"/>
+      <c r="B176" s="130"/>
       <c r="C176" s="16" t="s">
         <v>50</v>
       </c>
@@ -42388,7 +42388,7 @@
       <c r="T176" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U176" s="131"/>
+      <c r="U176" s="132"/>
       <c r="V176" s="22"/>
       <c r="W176" s="22"/>
       <c r="X176" s="22"/>
@@ -42396,8 +42396,8 @@
       <c r="Z176" s="19"/>
     </row>
     <row r="177" spans="1:26">
-      <c r="A177" s="129"/>
-      <c r="B177" s="130"/>
+      <c r="A177" s="130"/>
+      <c r="B177" s="131"/>
       <c r="C177" s="24" t="s">
         <v>51</v>
       </c>
@@ -42452,7 +42452,7 @@
       <c r="T177" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U177" s="131"/>
+      <c r="U177" s="132"/>
       <c r="V177" s="22"/>
       <c r="W177" s="22"/>
       <c r="X177" s="22"/>
@@ -42460,8 +42460,8 @@
       <c r="Z177" s="19"/>
     </row>
     <row r="178" spans="1:26">
-      <c r="A178" s="129"/>
-      <c r="B178" s="129" t="s">
+      <c r="A178" s="130"/>
+      <c r="B178" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C178" s="16" t="s">
@@ -42518,7 +42518,7 @@
       <c r="T178" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U178" s="131"/>
+      <c r="U178" s="132"/>
       <c r="V178" s="22"/>
       <c r="W178" s="22"/>
       <c r="X178" s="22"/>
@@ -42526,8 +42526,8 @@
       <c r="Z178" s="19"/>
     </row>
     <row r="179" spans="1:26">
-      <c r="A179" s="129"/>
-      <c r="B179" s="129"/>
+      <c r="A179" s="130"/>
+      <c r="B179" s="130"/>
       <c r="C179" s="14" t="s">
         <v>49</v>
       </c>
@@ -42582,7 +42582,7 @@
       <c r="T179" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U179" s="131"/>
+      <c r="U179" s="132"/>
       <c r="V179" s="22"/>
       <c r="W179" s="22"/>
       <c r="X179" s="22"/>
@@ -42590,8 +42590,8 @@
       <c r="Z179" s="19"/>
     </row>
     <row r="180" spans="1:26">
-      <c r="A180" s="129"/>
-      <c r="B180" s="129"/>
+      <c r="A180" s="130"/>
+      <c r="B180" s="130"/>
       <c r="C180" s="16" t="s">
         <v>50</v>
       </c>
@@ -42646,7 +42646,7 @@
       <c r="T180" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U180" s="131"/>
+      <c r="U180" s="132"/>
       <c r="V180" s="22"/>
       <c r="W180" s="22"/>
       <c r="X180" s="22"/>
@@ -42654,8 +42654,8 @@
       <c r="Z180" s="19"/>
     </row>
     <row r="181" spans="1:26">
-      <c r="A181" s="130"/>
-      <c r="B181" s="130"/>
+      <c r="A181" s="131"/>
+      <c r="B181" s="131"/>
       <c r="C181" s="24" t="s">
         <v>51</v>
       </c>
@@ -42710,7 +42710,7 @@
       <c r="T181" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U181" s="131"/>
+      <c r="U181" s="132"/>
       <c r="V181" s="22"/>
       <c r="W181" s="22"/>
       <c r="X181" s="22"/>
@@ -42718,10 +42718,10 @@
       <c r="Z181" s="19"/>
     </row>
     <row r="182" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A182" s="128" t="s">
+      <c r="A182" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B182" s="128" t="s">
+      <c r="B182" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C182" s="16" t="s">
@@ -42778,7 +42778,7 @@
       <c r="T182" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U182" s="131"/>
+      <c r="U182" s="132"/>
       <c r="V182" s="22"/>
       <c r="W182" s="22"/>
       <c r="X182" s="22"/>
@@ -42786,8 +42786,8 @@
       <c r="Z182" s="19"/>
     </row>
     <row r="183" spans="1:26">
-      <c r="A183" s="129"/>
-      <c r="B183" s="129"/>
+      <c r="A183" s="130"/>
+      <c r="B183" s="130"/>
       <c r="C183" s="14" t="s">
         <v>49</v>
       </c>
@@ -42842,7 +42842,7 @@
       <c r="T183" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U183" s="131"/>
+      <c r="U183" s="132"/>
       <c r="V183" s="22"/>
       <c r="W183" s="22"/>
       <c r="X183" s="22"/>
@@ -42850,8 +42850,8 @@
       <c r="Z183" s="19"/>
     </row>
     <row r="184" spans="1:26">
-      <c r="A184" s="129"/>
-      <c r="B184" s="129"/>
+      <c r="A184" s="130"/>
+      <c r="B184" s="130"/>
       <c r="C184" s="16" t="s">
         <v>50</v>
       </c>
@@ -42906,7 +42906,7 @@
       <c r="T184" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U184" s="131"/>
+      <c r="U184" s="132"/>
       <c r="V184" s="22"/>
       <c r="W184" s="22"/>
       <c r="X184" s="22"/>
@@ -42914,8 +42914,8 @@
       <c r="Z184" s="19"/>
     </row>
     <row r="185" spans="1:26">
-      <c r="A185" s="129"/>
-      <c r="B185" s="130"/>
+      <c r="A185" s="130"/>
+      <c r="B185" s="131"/>
       <c r="C185" s="24" t="s">
         <v>51</v>
       </c>
@@ -42970,7 +42970,7 @@
       <c r="T185" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U185" s="131"/>
+      <c r="U185" s="132"/>
       <c r="V185" s="22"/>
       <c r="W185" s="22"/>
       <c r="X185" s="22"/>
@@ -42978,8 +42978,8 @@
       <c r="Z185" s="19"/>
     </row>
     <row r="186" spans="1:26">
-      <c r="A186" s="129"/>
-      <c r="B186" s="129" t="s">
+      <c r="A186" s="130"/>
+      <c r="B186" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C186" s="16" t="s">
@@ -43036,7 +43036,7 @@
       <c r="T186" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U186" s="131"/>
+      <c r="U186" s="132"/>
       <c r="V186" s="22"/>
       <c r="W186" s="22"/>
       <c r="X186" s="22"/>
@@ -43044,8 +43044,8 @@
       <c r="Z186" s="19"/>
     </row>
     <row r="187" spans="1:26">
-      <c r="A187" s="129"/>
-      <c r="B187" s="129"/>
+      <c r="A187" s="130"/>
+      <c r="B187" s="130"/>
       <c r="C187" s="14" t="s">
         <v>49</v>
       </c>
@@ -43100,7 +43100,7 @@
       <c r="T187" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U187" s="131"/>
+      <c r="U187" s="132"/>
       <c r="V187" s="22"/>
       <c r="W187" s="22"/>
       <c r="X187" s="22"/>
@@ -43108,8 +43108,8 @@
       <c r="Z187" s="19"/>
     </row>
     <row r="188" spans="1:26">
-      <c r="A188" s="129"/>
-      <c r="B188" s="129"/>
+      <c r="A188" s="130"/>
+      <c r="B188" s="130"/>
       <c r="C188" s="16" t="s">
         <v>50</v>
       </c>
@@ -43164,7 +43164,7 @@
       <c r="T188" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U188" s="131"/>
+      <c r="U188" s="132"/>
       <c r="V188" s="22"/>
       <c r="W188" s="22"/>
       <c r="X188" s="22"/>
@@ -43172,8 +43172,8 @@
       <c r="Z188" s="19"/>
     </row>
     <row r="189" spans="1:26">
-      <c r="A189" s="130"/>
-      <c r="B189" s="130"/>
+      <c r="A189" s="131"/>
+      <c r="B189" s="131"/>
       <c r="C189" s="24" t="s">
         <v>51</v>
       </c>
@@ -43228,7 +43228,7 @@
       <c r="T189" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U189" s="131"/>
+      <c r="U189" s="132"/>
       <c r="V189" s="22"/>
       <c r="W189" s="22"/>
       <c r="X189" s="22"/>
@@ -43236,10 +43236,10 @@
       <c r="Z189" s="19"/>
     </row>
     <row r="190" spans="1:26">
-      <c r="A190" s="128" t="s">
+      <c r="A190" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B190" s="128" t="s">
+      <c r="B190" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C190" s="16" t="s">
@@ -43296,7 +43296,7 @@
       <c r="T190" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U190" s="131"/>
+      <c r="U190" s="132"/>
       <c r="V190" s="22"/>
       <c r="W190" s="22"/>
       <c r="X190" s="22"/>
@@ -43304,8 +43304,8 @@
       <c r="Z190" s="19"/>
     </row>
     <row r="191" spans="1:26">
-      <c r="A191" s="129"/>
-      <c r="B191" s="129"/>
+      <c r="A191" s="130"/>
+      <c r="B191" s="130"/>
       <c r="C191" s="14" t="s">
         <v>49</v>
       </c>
@@ -43360,7 +43360,7 @@
       <c r="T191" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U191" s="131"/>
+      <c r="U191" s="132"/>
       <c r="V191" s="22"/>
       <c r="W191" s="22"/>
       <c r="X191" s="22"/>
@@ -43368,8 +43368,8 @@
       <c r="Z191" s="19"/>
     </row>
     <row r="192" spans="1:26">
-      <c r="A192" s="129"/>
-      <c r="B192" s="129"/>
+      <c r="A192" s="130"/>
+      <c r="B192" s="130"/>
       <c r="C192" s="16" t="s">
         <v>50</v>
       </c>
@@ -43424,7 +43424,7 @@
       <c r="T192" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U192" s="131"/>
+      <c r="U192" s="132"/>
       <c r="V192" s="22"/>
       <c r="W192" s="22"/>
       <c r="X192" s="22"/>
@@ -43432,8 +43432,8 @@
       <c r="Z192" s="19"/>
     </row>
     <row r="193" spans="1:26">
-      <c r="A193" s="129"/>
-      <c r="B193" s="130"/>
+      <c r="A193" s="130"/>
+      <c r="B193" s="131"/>
       <c r="C193" s="24" t="s">
         <v>51</v>
       </c>
@@ -43488,7 +43488,7 @@
       <c r="T193" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U193" s="131"/>
+      <c r="U193" s="132"/>
       <c r="V193" s="22"/>
       <c r="W193" s="22"/>
       <c r="X193" s="22"/>
@@ -43496,8 +43496,8 @@
       <c r="Z193" s="19"/>
     </row>
     <row r="194" spans="1:26">
-      <c r="A194" s="129"/>
-      <c r="B194" s="129" t="s">
+      <c r="A194" s="130"/>
+      <c r="B194" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C194" s="16" t="s">
@@ -43554,7 +43554,7 @@
       <c r="T194" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U194" s="131"/>
+      <c r="U194" s="132"/>
       <c r="V194" s="22"/>
       <c r="W194" s="22"/>
       <c r="X194" s="22"/>
@@ -43562,8 +43562,8 @@
       <c r="Z194" s="19"/>
     </row>
     <row r="195" spans="1:26">
-      <c r="A195" s="129"/>
-      <c r="B195" s="129"/>
+      <c r="A195" s="130"/>
+      <c r="B195" s="130"/>
       <c r="C195" s="14" t="s">
         <v>49</v>
       </c>
@@ -43618,7 +43618,7 @@
       <c r="T195" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U195" s="131"/>
+      <c r="U195" s="132"/>
       <c r="V195" s="22"/>
       <c r="W195" s="22"/>
       <c r="X195" s="22"/>
@@ -43626,8 +43626,8 @@
       <c r="Z195" s="19"/>
     </row>
     <row r="196" spans="1:26">
-      <c r="A196" s="129"/>
-      <c r="B196" s="129"/>
+      <c r="A196" s="130"/>
+      <c r="B196" s="130"/>
       <c r="C196" s="16" t="s">
         <v>50</v>
       </c>
@@ -43682,7 +43682,7 @@
       <c r="T196" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U196" s="131"/>
+      <c r="U196" s="132"/>
       <c r="V196" s="22"/>
       <c r="W196" s="22"/>
       <c r="X196" s="22"/>
@@ -43690,8 +43690,8 @@
       <c r="Z196" s="19"/>
     </row>
     <row r="197" spans="1:26">
-      <c r="A197" s="130"/>
-      <c r="B197" s="130"/>
+      <c r="A197" s="131"/>
+      <c r="B197" s="131"/>
       <c r="C197" s="24" t="s">
         <v>51</v>
       </c>
@@ -43746,7 +43746,7 @@
       <c r="T197" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U197" s="131"/>
+      <c r="U197" s="132"/>
       <c r="V197" s="22"/>
       <c r="W197" s="22"/>
       <c r="X197" s="22"/>
@@ -43754,10 +43754,10 @@
       <c r="Z197" s="19"/>
     </row>
     <row r="198" spans="1:26">
-      <c r="A198" s="128" t="s">
+      <c r="A198" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="B198" s="128" t="s">
+      <c r="B198" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C198" s="16" t="s">
@@ -43814,7 +43814,7 @@
       <c r="T198" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U198" s="131"/>
+      <c r="U198" s="132"/>
       <c r="V198" s="22"/>
       <c r="W198" s="22"/>
       <c r="X198" s="22"/>
@@ -43822,8 +43822,8 @@
       <c r="Z198" s="19"/>
     </row>
     <row r="199" spans="1:26">
-      <c r="A199" s="129"/>
-      <c r="B199" s="129"/>
+      <c r="A199" s="130"/>
+      <c r="B199" s="130"/>
       <c r="C199" s="14" t="s">
         <v>49</v>
       </c>
@@ -43878,7 +43878,7 @@
       <c r="T199" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U199" s="131"/>
+      <c r="U199" s="132"/>
       <c r="V199" s="22"/>
       <c r="W199" s="22"/>
       <c r="X199" s="22"/>
@@ -43886,8 +43886,8 @@
       <c r="Z199" s="19"/>
     </row>
     <row r="200" spans="1:26">
-      <c r="A200" s="129"/>
-      <c r="B200" s="129"/>
+      <c r="A200" s="130"/>
+      <c r="B200" s="130"/>
       <c r="C200" s="16" t="s">
         <v>50</v>
       </c>
@@ -43942,7 +43942,7 @@
       <c r="T200" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U200" s="131"/>
+      <c r="U200" s="132"/>
       <c r="V200" s="22"/>
       <c r="W200" s="22"/>
       <c r="X200" s="22"/>
@@ -43950,8 +43950,8 @@
       <c r="Z200" s="19"/>
     </row>
     <row r="201" spans="1:26">
-      <c r="A201" s="129"/>
-      <c r="B201" s="130"/>
+      <c r="A201" s="130"/>
+      <c r="B201" s="131"/>
       <c r="C201" s="24" t="s">
         <v>51</v>
       </c>
@@ -44006,7 +44006,7 @@
       <c r="T201" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U201" s="131"/>
+      <c r="U201" s="132"/>
       <c r="V201" s="22"/>
       <c r="W201" s="22"/>
       <c r="X201" s="22"/>
@@ -44014,8 +44014,8 @@
       <c r="Z201" s="19"/>
     </row>
     <row r="202" spans="1:26">
-      <c r="A202" s="129"/>
-      <c r="B202" s="129" t="s">
+      <c r="A202" s="130"/>
+      <c r="B202" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C202" s="16" t="s">
@@ -44072,7 +44072,7 @@
       <c r="T202" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U202" s="131"/>
+      <c r="U202" s="132"/>
       <c r="V202" s="22"/>
       <c r="W202" s="22"/>
       <c r="X202" s="22"/>
@@ -44080,8 +44080,8 @@
       <c r="Z202" s="19"/>
     </row>
     <row r="203" spans="1:26">
-      <c r="A203" s="129"/>
-      <c r="B203" s="129"/>
+      <c r="A203" s="130"/>
+      <c r="B203" s="130"/>
       <c r="C203" s="14" t="s">
         <v>49</v>
       </c>
@@ -44136,7 +44136,7 @@
       <c r="T203" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U203" s="131"/>
+      <c r="U203" s="132"/>
       <c r="V203" s="22"/>
       <c r="W203" s="22"/>
       <c r="X203" s="22"/>
@@ -44144,8 +44144,8 @@
       <c r="Z203" s="19"/>
     </row>
     <row r="204" spans="1:26">
-      <c r="A204" s="129"/>
-      <c r="B204" s="129"/>
+      <c r="A204" s="130"/>
+      <c r="B204" s="130"/>
       <c r="C204" s="16" t="s">
         <v>50</v>
       </c>
@@ -44200,7 +44200,7 @@
       <c r="T204" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U204" s="131"/>
+      <c r="U204" s="132"/>
       <c r="V204" s="22"/>
       <c r="W204" s="22"/>
       <c r="X204" s="22"/>
@@ -44208,8 +44208,8 @@
       <c r="Z204" s="19"/>
     </row>
     <row r="205" spans="1:26">
-      <c r="A205" s="130"/>
-      <c r="B205" s="130"/>
+      <c r="A205" s="131"/>
+      <c r="B205" s="131"/>
       <c r="C205" s="24" t="s">
         <v>51</v>
       </c>
@@ -44264,7 +44264,7 @@
       <c r="T205" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U205" s="131"/>
+      <c r="U205" s="132"/>
       <c r="V205" s="22"/>
       <c r="W205" s="22"/>
       <c r="X205" s="22"/>
@@ -44272,10 +44272,10 @@
       <c r="Z205" s="19"/>
     </row>
     <row r="206" spans="1:26">
-      <c r="A206" s="128" t="s">
+      <c r="A206" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B206" s="128" t="s">
+      <c r="B206" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C206" s="16" t="s">
@@ -44332,7 +44332,7 @@
       <c r="T206" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U206" s="131"/>
+      <c r="U206" s="132"/>
       <c r="V206" s="22"/>
       <c r="W206" s="22"/>
       <c r="X206" s="22"/>
@@ -44340,8 +44340,8 @@
       <c r="Z206" s="19"/>
     </row>
     <row r="207" spans="1:26">
-      <c r="A207" s="129"/>
-      <c r="B207" s="129"/>
+      <c r="A207" s="130"/>
+      <c r="B207" s="130"/>
       <c r="C207" s="14" t="s">
         <v>49</v>
       </c>
@@ -44396,7 +44396,7 @@
       <c r="T207" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U207" s="131"/>
+      <c r="U207" s="132"/>
       <c r="V207" s="22"/>
       <c r="W207" s="22"/>
       <c r="X207" s="22"/>
@@ -44404,8 +44404,8 @@
       <c r="Z207" s="19"/>
     </row>
     <row r="208" spans="1:26">
-      <c r="A208" s="129"/>
-      <c r="B208" s="129"/>
+      <c r="A208" s="130"/>
+      <c r="B208" s="130"/>
       <c r="C208" s="16" t="s">
         <v>50</v>
       </c>
@@ -44460,7 +44460,7 @@
       <c r="T208" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U208" s="131"/>
+      <c r="U208" s="132"/>
       <c r="V208" s="22"/>
       <c r="W208" s="22"/>
       <c r="X208" s="22"/>
@@ -44468,8 +44468,8 @@
       <c r="Z208" s="19"/>
     </row>
     <row r="209" spans="1:26">
-      <c r="A209" s="129"/>
-      <c r="B209" s="130"/>
+      <c r="A209" s="130"/>
+      <c r="B209" s="131"/>
       <c r="C209" s="24" t="s">
         <v>51</v>
       </c>
@@ -44524,7 +44524,7 @@
       <c r="T209" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U209" s="131"/>
+      <c r="U209" s="132"/>
       <c r="V209" s="22"/>
       <c r="W209" s="22"/>
       <c r="X209" s="22"/>
@@ -44532,8 +44532,8 @@
       <c r="Z209" s="19"/>
     </row>
     <row r="210" spans="1:26">
-      <c r="A210" s="129"/>
-      <c r="B210" s="129" t="s">
+      <c r="A210" s="130"/>
+      <c r="B210" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C210" s="16" t="s">
@@ -44590,7 +44590,7 @@
       <c r="T210" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U210" s="131"/>
+      <c r="U210" s="132"/>
       <c r="V210" s="22"/>
       <c r="W210" s="22"/>
       <c r="X210" s="22"/>
@@ -44598,8 +44598,8 @@
       <c r="Z210" s="19"/>
     </row>
     <row r="211" spans="1:26">
-      <c r="A211" s="129"/>
-      <c r="B211" s="129"/>
+      <c r="A211" s="130"/>
+      <c r="B211" s="130"/>
       <c r="C211" s="14" t="s">
         <v>49</v>
       </c>
@@ -44654,7 +44654,7 @@
       <c r="T211" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U211" s="131"/>
+      <c r="U211" s="132"/>
       <c r="V211" s="22"/>
       <c r="W211" s="22"/>
       <c r="X211" s="22"/>
@@ -44662,8 +44662,8 @@
       <c r="Z211" s="19"/>
     </row>
     <row r="212" spans="1:26">
-      <c r="A212" s="129"/>
-      <c r="B212" s="129"/>
+      <c r="A212" s="130"/>
+      <c r="B212" s="130"/>
       <c r="C212" s="16" t="s">
         <v>50</v>
       </c>
@@ -44718,7 +44718,7 @@
       <c r="T212" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U212" s="131"/>
+      <c r="U212" s="132"/>
       <c r="V212" s="22"/>
       <c r="W212" s="22"/>
       <c r="X212" s="22"/>
@@ -44726,8 +44726,8 @@
       <c r="Z212" s="19"/>
     </row>
     <row r="213" spans="1:26">
-      <c r="A213" s="130"/>
-      <c r="B213" s="130"/>
+      <c r="A213" s="131"/>
+      <c r="B213" s="131"/>
       <c r="C213" s="24" t="s">
         <v>51</v>
       </c>
@@ -44782,7 +44782,7 @@
       <c r="T213" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U213" s="131"/>
+      <c r="U213" s="132"/>
       <c r="V213" s="22"/>
       <c r="W213" s="22"/>
       <c r="X213" s="22"/>
@@ -44790,10 +44790,10 @@
       <c r="Z213" s="19"/>
     </row>
     <row r="214" spans="1:26">
-      <c r="A214" s="128" t="s">
+      <c r="A214" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="B214" s="128" t="s">
+      <c r="B214" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C214" s="16" t="s">
@@ -44850,7 +44850,7 @@
       <c r="T214" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U214" s="131"/>
+      <c r="U214" s="132"/>
       <c r="V214" s="22"/>
       <c r="W214" s="22"/>
       <c r="X214" s="22"/>
@@ -44858,8 +44858,8 @@
       <c r="Z214" s="19"/>
     </row>
     <row r="215" spans="1:26">
-      <c r="A215" s="129"/>
-      <c r="B215" s="129"/>
+      <c r="A215" s="130"/>
+      <c r="B215" s="130"/>
       <c r="C215" s="14" t="s">
         <v>49</v>
       </c>
@@ -44914,7 +44914,7 @@
       <c r="T215" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U215" s="131"/>
+      <c r="U215" s="132"/>
       <c r="V215" s="22"/>
       <c r="W215" s="22"/>
       <c r="X215" s="22"/>
@@ -44922,8 +44922,8 @@
       <c r="Z215" s="19"/>
     </row>
     <row r="216" spans="1:26">
-      <c r="A216" s="129"/>
-      <c r="B216" s="129"/>
+      <c r="A216" s="130"/>
+      <c r="B216" s="130"/>
       <c r="C216" s="16" t="s">
         <v>50</v>
       </c>
@@ -44978,7 +44978,7 @@
       <c r="T216" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U216" s="131"/>
+      <c r="U216" s="132"/>
       <c r="V216" s="22"/>
       <c r="W216" s="22"/>
       <c r="X216" s="22"/>
@@ -44986,8 +44986,8 @@
       <c r="Z216" s="19"/>
     </row>
     <row r="217" spans="1:26">
-      <c r="A217" s="129"/>
-      <c r="B217" s="130"/>
+      <c r="A217" s="130"/>
+      <c r="B217" s="131"/>
       <c r="C217" s="24" t="s">
         <v>51</v>
       </c>
@@ -45042,7 +45042,7 @@
       <c r="T217" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="U217" s="131"/>
+      <c r="U217" s="132"/>
       <c r="V217" s="22"/>
       <c r="W217" s="22"/>
       <c r="X217" s="22"/>
@@ -45050,8 +45050,8 @@
       <c r="Z217" s="19"/>
     </row>
     <row r="218" spans="1:26">
-      <c r="A218" s="129"/>
-      <c r="B218" s="129" t="s">
+      <c r="A218" s="130"/>
+      <c r="B218" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C218" s="16" t="s">
@@ -45108,7 +45108,7 @@
       <c r="T218" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U218" s="131"/>
+      <c r="U218" s="132"/>
       <c r="V218" s="22"/>
       <c r="W218" s="22"/>
       <c r="X218" s="22"/>
@@ -45116,8 +45116,8 @@
       <c r="Z218" s="19"/>
     </row>
     <row r="219" spans="1:26">
-      <c r="A219" s="129"/>
-      <c r="B219" s="129"/>
+      <c r="A219" s="130"/>
+      <c r="B219" s="130"/>
       <c r="C219" s="14" t="s">
         <v>49</v>
       </c>
@@ -45172,7 +45172,7 @@
       <c r="T219" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="U219" s="131"/>
+      <c r="U219" s="132"/>
       <c r="V219" s="22"/>
       <c r="W219" s="22"/>
       <c r="X219" s="22"/>
@@ -45180,8 +45180,8 @@
       <c r="Z219" s="19"/>
     </row>
     <row r="220" spans="1:26">
-      <c r="A220" s="129"/>
-      <c r="B220" s="129"/>
+      <c r="A220" s="130"/>
+      <c r="B220" s="130"/>
       <c r="C220" s="16" t="s">
         <v>50</v>
       </c>
@@ -45236,7 +45236,7 @@
       <c r="T220" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="U220" s="131"/>
+      <c r="U220" s="132"/>
       <c r="V220" s="22"/>
       <c r="W220" s="22"/>
       <c r="X220" s="22"/>
@@ -45244,8 +45244,8 @@
       <c r="Z220" s="19"/>
     </row>
     <row r="221" spans="1:26">
-      <c r="A221" s="130"/>
-      <c r="B221" s="130"/>
+      <c r="A221" s="131"/>
+      <c r="B221" s="131"/>
       <c r="C221" s="24" t="s">
         <v>51</v>
       </c>
@@ -45300,7 +45300,7 @@
       <c r="T221" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="U221" s="131"/>
+      <c r="U221" s="132"/>
       <c r="V221" s="22"/>
       <c r="W221" s="22"/>
       <c r="X221" s="22"/>
@@ -45308,10 +45308,10 @@
       <c r="Z221" s="19"/>
     </row>
     <row r="222" spans="1:26">
-      <c r="A222" s="128" t="s">
+      <c r="A222" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B222" s="128" t="s">
+      <c r="B222" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C222" s="16" t="s">
@@ -45368,7 +45368,7 @@
       <c r="T222" s="17">
         <v>140.71192375024316</v>
       </c>
-      <c r="U222" s="131"/>
+      <c r="U222" s="132"/>
       <c r="V222" s="22"/>
       <c r="W222" s="22"/>
       <c r="X222" s="22"/>
@@ -45376,8 +45376,8 @@
       <c r="Z222" s="19"/>
     </row>
     <row r="223" spans="1:26">
-      <c r="A223" s="129"/>
-      <c r="B223" s="129"/>
+      <c r="A223" s="130"/>
+      <c r="B223" s="130"/>
       <c r="C223" s="14" t="s">
         <v>49</v>
       </c>
@@ -45432,7 +45432,7 @@
       <c r="T223" s="15">
         <v>56.844255854156842</v>
       </c>
-      <c r="U223" s="131"/>
+      <c r="U223" s="132"/>
       <c r="V223" s="22"/>
       <c r="W223" s="22"/>
       <c r="X223" s="22"/>
@@ -45440,8 +45440,8 @@
       <c r="Z223" s="19"/>
     </row>
     <row r="224" spans="1:26">
-      <c r="A224" s="129"/>
-      <c r="B224" s="129"/>
+      <c r="A224" s="130"/>
+      <c r="B224" s="130"/>
       <c r="C224" s="16" t="s">
         <v>50</v>
       </c>
@@ -45496,7 +45496,7 @@
       <c r="T224" s="17">
         <v>103</v>
       </c>
-      <c r="U224" s="131"/>
+      <c r="U224" s="132"/>
       <c r="V224" s="22"/>
       <c r="W224" s="22"/>
       <c r="X224" s="22"/>
@@ -45504,8 +45504,8 @@
       <c r="Z224" s="19"/>
     </row>
     <row r="225" spans="1:26">
-      <c r="A225" s="129"/>
-      <c r="B225" s="130"/>
+      <c r="A225" s="130"/>
+      <c r="B225" s="131"/>
       <c r="C225" s="24" t="s">
         <v>51</v>
       </c>
@@ -45560,7 +45560,7 @@
       <c r="T225" s="25">
         <v>69.336194494436185</v>
       </c>
-      <c r="U225" s="131"/>
+      <c r="U225" s="132"/>
       <c r="V225" s="22"/>
       <c r="W225" s="22"/>
       <c r="X225" s="22"/>
@@ -45568,8 +45568,8 @@
       <c r="Z225" s="19"/>
     </row>
     <row r="226" spans="1:26">
-      <c r="A226" s="129"/>
-      <c r="B226" s="129" t="s">
+      <c r="A226" s="130"/>
+      <c r="B226" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C226" s="16" t="s">
@@ -45626,7 +45626,7 @@
       <c r="T226" s="17">
         <v>106.82746547364326</v>
       </c>
-      <c r="U226" s="131"/>
+      <c r="U226" s="132"/>
       <c r="V226" s="22"/>
       <c r="W226" s="22"/>
       <c r="X226" s="22"/>
@@ -45634,8 +45634,8 @@
       <c r="Z226" s="19"/>
     </row>
     <row r="227" spans="1:26">
-      <c r="A227" s="129"/>
-      <c r="B227" s="129"/>
+      <c r="A227" s="130"/>
+      <c r="B227" s="130"/>
       <c r="C227" s="14" t="s">
         <v>49</v>
       </c>
@@ -45690,7 +45690,7 @@
       <c r="T227" s="15">
         <v>43.155744145843158</v>
       </c>
-      <c r="U227" s="131"/>
+      <c r="U227" s="132"/>
       <c r="V227" s="22"/>
       <c r="W227" s="22"/>
       <c r="X227" s="22"/>
@@ -45698,8 +45698,8 @@
       <c r="Z227" s="19"/>
     </row>
     <row r="228" spans="1:26">
-      <c r="A228" s="129"/>
-      <c r="B228" s="129"/>
+      <c r="A228" s="130"/>
+      <c r="B228" s="130"/>
       <c r="C228" s="16" t="s">
         <v>50</v>
       </c>
@@ -45754,7 +45754,7 @@
       <c r="T228" s="17">
         <v>60</v>
       </c>
-      <c r="U228" s="131"/>
+      <c r="U228" s="132"/>
       <c r="V228" s="22"/>
       <c r="W228" s="22"/>
       <c r="X228" s="22"/>
@@ -45762,8 +45762,8 @@
       <c r="Z228" s="19"/>
     </row>
     <row r="229" spans="1:26">
-      <c r="A229" s="130"/>
-      <c r="B229" s="130"/>
+      <c r="A229" s="131"/>
+      <c r="B229" s="131"/>
       <c r="C229" s="24" t="s">
         <v>51</v>
       </c>
@@ -45818,7 +45818,7 @@
       <c r="T229" s="25">
         <v>30.663805505563818</v>
       </c>
-      <c r="U229" s="131"/>
+      <c r="U229" s="132"/>
       <c r="V229" s="22"/>
       <c r="W229" s="22"/>
       <c r="X229" s="22"/>
@@ -45826,10 +45826,10 @@
       <c r="Z229" s="19"/>
     </row>
     <row r="230" spans="1:26">
-      <c r="A230" s="128" t="s">
+      <c r="A230" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B230" s="128" t="s">
+      <c r="B230" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C230" s="16" t="s">
@@ -45886,7 +45886,7 @@
       <c r="T230" s="17">
         <v>95.830898011252458</v>
       </c>
-      <c r="U230" s="131"/>
+      <c r="U230" s="132"/>
       <c r="V230" s="22"/>
       <c r="W230" s="22"/>
       <c r="X230" s="22"/>
@@ -45894,8 +45894,8 @@
       <c r="Z230" s="19"/>
     </row>
     <row r="231" spans="1:26">
-      <c r="A231" s="129"/>
-      <c r="B231" s="129"/>
+      <c r="A231" s="130"/>
+      <c r="B231" s="130"/>
       <c r="C231" s="14" t="s">
         <v>49</v>
       </c>
@@ -45950,7 +45950,7 @@
       <c r="T231" s="15">
         <v>99.039304979961443</v>
       </c>
-      <c r="U231" s="131"/>
+      <c r="U231" s="132"/>
       <c r="V231" s="22"/>
       <c r="W231" s="22"/>
       <c r="X231" s="22"/>
@@ -45958,8 +45958,8 @@
       <c r="Z231" s="19"/>
     </row>
     <row r="232" spans="1:26">
-      <c r="A232" s="129"/>
-      <c r="B232" s="129"/>
+      <c r="A232" s="130"/>
+      <c r="B232" s="130"/>
       <c r="C232" s="16" t="s">
         <v>50</v>
       </c>
@@ -46014,7 +46014,7 @@
       <c r="T232" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U232" s="131"/>
+      <c r="U232" s="132"/>
       <c r="V232" s="22"/>
       <c r="W232" s="22"/>
       <c r="X232" s="22"/>
@@ -46022,8 +46022,8 @@
       <c r="Z232" s="19"/>
     </row>
     <row r="233" spans="1:26">
-      <c r="A233" s="129"/>
-      <c r="B233" s="130"/>
+      <c r="A233" s="130"/>
+      <c r="B233" s="131"/>
       <c r="C233" s="24" t="s">
         <v>51</v>
       </c>
@@ -46078,7 +46078,7 @@
       <c r="T233" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U233" s="131"/>
+      <c r="U233" s="132"/>
       <c r="V233" s="22"/>
       <c r="W233" s="22"/>
       <c r="X233" s="22"/>
@@ -46086,8 +46086,8 @@
       <c r="Z233" s="19"/>
     </row>
     <row r="234" spans="1:26">
-      <c r="A234" s="129"/>
-      <c r="B234" s="129" t="s">
+      <c r="A234" s="130"/>
+      <c r="B234" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C234" s="16" t="s">
@@ -46144,7 +46144,7 @@
       <c r="T234" s="17">
         <v>0.92957302662675279</v>
       </c>
-      <c r="U234" s="131"/>
+      <c r="U234" s="132"/>
       <c r="V234" s="22"/>
       <c r="W234" s="22"/>
       <c r="X234" s="22"/>
@@ -46152,8 +46152,8 @@
       <c r="Z234" s="19"/>
     </row>
     <row r="235" spans="1:26">
-      <c r="A235" s="129"/>
-      <c r="B235" s="129"/>
+      <c r="A235" s="130"/>
+      <c r="B235" s="130"/>
       <c r="C235" s="14" t="s">
         <v>49</v>
       </c>
@@ -46208,7 +46208,7 @@
       <c r="T235" s="15">
         <v>0.96069502003855389</v>
       </c>
-      <c r="U235" s="131"/>
+      <c r="U235" s="132"/>
       <c r="V235" s="22"/>
       <c r="W235" s="22"/>
       <c r="X235" s="22"/>
@@ -46216,8 +46216,8 @@
       <c r="Z235" s="19"/>
     </row>
     <row r="236" spans="1:26">
-      <c r="A236" s="129"/>
-      <c r="B236" s="129"/>
+      <c r="A236" s="130"/>
+      <c r="B236" s="130"/>
       <c r="C236" s="16" t="s">
         <v>50</v>
       </c>
@@ -46272,7 +46272,7 @@
       <c r="T236" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U236" s="131"/>
+      <c r="U236" s="132"/>
       <c r="V236" s="22"/>
       <c r="W236" s="22"/>
       <c r="X236" s="22"/>
@@ -46280,8 +46280,8 @@
       <c r="Z236" s="19"/>
     </row>
     <row r="237" spans="1:26">
-      <c r="A237" s="130"/>
-      <c r="B237" s="130"/>
+      <c r="A237" s="131"/>
+      <c r="B237" s="131"/>
       <c r="C237" s="24" t="s">
         <v>51</v>
       </c>
@@ -46336,7 +46336,7 @@
       <c r="T237" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U237" s="131"/>
+      <c r="U237" s="132"/>
       <c r="V237" s="22"/>
       <c r="W237" s="22"/>
       <c r="X237" s="22"/>
@@ -46344,10 +46344,10 @@
       <c r="Z237" s="19"/>
     </row>
     <row r="238" spans="1:26">
-      <c r="A238" s="128" t="s">
+      <c r="A238" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B238" s="128" t="s">
+      <c r="B238" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C238" s="16" t="s">
@@ -46404,7 +46404,7 @@
       <c r="T238" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U238" s="131"/>
+      <c r="U238" s="132"/>
       <c r="V238" s="22"/>
       <c r="W238" s="22"/>
       <c r="X238" s="22"/>
@@ -46412,8 +46412,8 @@
       <c r="Z238" s="19"/>
     </row>
     <row r="239" spans="1:26">
-      <c r="A239" s="129"/>
-      <c r="B239" s="129"/>
+      <c r="A239" s="130"/>
+      <c r="B239" s="130"/>
       <c r="C239" s="14" t="s">
         <v>49</v>
       </c>
@@ -46468,7 +46468,7 @@
       <c r="T239" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U239" s="131"/>
+      <c r="U239" s="132"/>
       <c r="V239" s="22"/>
       <c r="W239" s="22"/>
       <c r="X239" s="22"/>
@@ -46476,8 +46476,8 @@
       <c r="Z239" s="19"/>
     </row>
     <row r="240" spans="1:26">
-      <c r="A240" s="129"/>
-      <c r="B240" s="129"/>
+      <c r="A240" s="130"/>
+      <c r="B240" s="130"/>
       <c r="C240" s="16" t="s">
         <v>50</v>
       </c>
@@ -46532,7 +46532,7 @@
       <c r="T240" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U240" s="131"/>
+      <c r="U240" s="132"/>
       <c r="V240" s="22"/>
       <c r="W240" s="22"/>
       <c r="X240" s="22"/>
@@ -46540,8 +46540,8 @@
       <c r="Z240" s="19"/>
     </row>
     <row r="241" spans="1:26">
-      <c r="A241" s="129"/>
-      <c r="B241" s="130"/>
+      <c r="A241" s="130"/>
+      <c r="B241" s="131"/>
       <c r="C241" s="24" t="s">
         <v>51</v>
       </c>
@@ -46596,7 +46596,7 @@
       <c r="T241" s="25">
         <v>78.78729070127379</v>
       </c>
-      <c r="U241" s="131"/>
+      <c r="U241" s="132"/>
       <c r="V241" s="22"/>
       <c r="W241" s="22"/>
       <c r="X241" s="22"/>
@@ -46604,8 +46604,8 @@
       <c r="Z241" s="19"/>
     </row>
     <row r="242" spans="1:26">
-      <c r="A242" s="129"/>
-      <c r="B242" s="129" t="s">
+      <c r="A242" s="130"/>
+      <c r="B242" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C242" s="16" t="s">
@@ -46662,7 +46662,7 @@
       <c r="T242" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U242" s="131"/>
+      <c r="U242" s="132"/>
       <c r="V242" s="22"/>
       <c r="W242" s="22"/>
       <c r="X242" s="22"/>
@@ -46670,8 +46670,8 @@
       <c r="Z242" s="19"/>
     </row>
     <row r="243" spans="1:26">
-      <c r="A243" s="129"/>
-      <c r="B243" s="129"/>
+      <c r="A243" s="130"/>
+      <c r="B243" s="130"/>
       <c r="C243" s="14" t="s">
         <v>49</v>
       </c>
@@ -46726,7 +46726,7 @@
       <c r="T243" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U243" s="131"/>
+      <c r="U243" s="132"/>
       <c r="V243" s="22"/>
       <c r="W243" s="22"/>
       <c r="X243" s="22"/>
@@ -46734,8 +46734,8 @@
       <c r="Z243" s="19"/>
     </row>
     <row r="244" spans="1:26">
-      <c r="A244" s="129"/>
-      <c r="B244" s="129"/>
+      <c r="A244" s="130"/>
+      <c r="B244" s="130"/>
       <c r="C244" s="16" t="s">
         <v>50</v>
       </c>
@@ -46790,7 +46790,7 @@
       <c r="T244" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U244" s="131"/>
+      <c r="U244" s="132"/>
       <c r="V244" s="22"/>
       <c r="W244" s="22"/>
       <c r="X244" s="22"/>
@@ -46798,8 +46798,8 @@
       <c r="Z244" s="19"/>
     </row>
     <row r="245" spans="1:26">
-      <c r="A245" s="130"/>
-      <c r="B245" s="130"/>
+      <c r="A245" s="131"/>
+      <c r="B245" s="131"/>
       <c r="C245" s="24" t="s">
         <v>51</v>
       </c>
@@ -46854,7 +46854,7 @@
       <c r="T245" s="25">
         <v>21.21270929872621</v>
       </c>
-      <c r="U245" s="131"/>
+      <c r="U245" s="132"/>
       <c r="V245" s="22"/>
       <c r="W245" s="22"/>
       <c r="X245" s="22"/>
@@ -46862,10 +46862,10 @@
       <c r="Z245" s="19"/>
     </row>
     <row r="246" spans="1:26">
-      <c r="A246" s="128" t="s">
+      <c r="A246" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B246" s="128" t="s">
+      <c r="B246" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C246" s="16" t="s">
@@ -46922,7 +46922,7 @@
       <c r="T246" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U246" s="131"/>
+      <c r="U246" s="132"/>
       <c r="V246" s="22"/>
       <c r="W246" s="22"/>
       <c r="X246" s="22"/>
@@ -46930,8 +46930,8 @@
       <c r="Z246" s="19"/>
     </row>
     <row r="247" spans="1:26">
-      <c r="A247" s="129"/>
-      <c r="B247" s="129"/>
+      <c r="A247" s="130"/>
+      <c r="B247" s="130"/>
       <c r="C247" s="14" t="s">
         <v>49</v>
       </c>
@@ -46986,7 +46986,7 @@
       <c r="T247" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U247" s="131"/>
+      <c r="U247" s="132"/>
       <c r="V247" s="22"/>
       <c r="W247" s="22"/>
       <c r="X247" s="22"/>
@@ -46994,8 +46994,8 @@
       <c r="Z247" s="19"/>
     </row>
     <row r="248" spans="1:26">
-      <c r="A248" s="129"/>
-      <c r="B248" s="129"/>
+      <c r="A248" s="130"/>
+      <c r="B248" s="130"/>
       <c r="C248" s="16" t="s">
         <v>50</v>
       </c>
@@ -47050,7 +47050,7 @@
       <c r="T248" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U248" s="131"/>
+      <c r="U248" s="132"/>
       <c r="V248" s="22"/>
       <c r="W248" s="22"/>
       <c r="X248" s="22"/>
@@ -47058,8 +47058,8 @@
       <c r="Z248" s="19"/>
     </row>
     <row r="249" spans="1:26">
-      <c r="A249" s="129"/>
-      <c r="B249" s="130"/>
+      <c r="A249" s="130"/>
+      <c r="B249" s="131"/>
       <c r="C249" s="24" t="s">
         <v>51</v>
       </c>
@@ -47114,7 +47114,7 @@
       <c r="T249" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U249" s="131"/>
+      <c r="U249" s="132"/>
       <c r="V249" s="22"/>
       <c r="W249" s="22"/>
       <c r="X249" s="22"/>
@@ -47122,8 +47122,8 @@
       <c r="Z249" s="19"/>
     </row>
     <row r="250" spans="1:26">
-      <c r="A250" s="129"/>
-      <c r="B250" s="129" t="s">
+      <c r="A250" s="130"/>
+      <c r="B250" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C250" s="16" t="s">
@@ -47180,7 +47180,7 @@
       <c r="T250" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U250" s="131"/>
+      <c r="U250" s="132"/>
       <c r="V250" s="22"/>
       <c r="W250" s="22"/>
       <c r="X250" s="22"/>
@@ -47188,8 +47188,8 @@
       <c r="Z250" s="19"/>
     </row>
     <row r="251" spans="1:26">
-      <c r="A251" s="129"/>
-      <c r="B251" s="129"/>
+      <c r="A251" s="130"/>
+      <c r="B251" s="130"/>
       <c r="C251" s="14" t="s">
         <v>49</v>
       </c>
@@ -47244,7 +47244,7 @@
       <c r="T251" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U251" s="131"/>
+      <c r="U251" s="132"/>
       <c r="V251" s="22"/>
       <c r="W251" s="22"/>
       <c r="X251" s="22"/>
@@ -47252,8 +47252,8 @@
       <c r="Z251" s="19"/>
     </row>
     <row r="252" spans="1:26">
-      <c r="A252" s="129"/>
-      <c r="B252" s="129"/>
+      <c r="A252" s="130"/>
+      <c r="B252" s="130"/>
       <c r="C252" s="16" t="s">
         <v>50</v>
       </c>
@@ -47308,7 +47308,7 @@
       <c r="T252" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U252" s="131"/>
+      <c r="U252" s="132"/>
       <c r="V252" s="22"/>
       <c r="W252" s="22"/>
       <c r="X252" s="22"/>
@@ -47316,8 +47316,8 @@
       <c r="Z252" s="19"/>
     </row>
     <row r="253" spans="1:26">
-      <c r="A253" s="130"/>
-      <c r="B253" s="130"/>
+      <c r="A253" s="131"/>
+      <c r="B253" s="131"/>
       <c r="C253" s="24" t="s">
         <v>51</v>
       </c>
@@ -47372,7 +47372,7 @@
       <c r="T253" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U253" s="131"/>
+      <c r="U253" s="132"/>
       <c r="V253" s="22"/>
       <c r="W253" s="22"/>
       <c r="X253" s="22"/>
@@ -47380,10 +47380,10 @@
       <c r="Z253" s="19"/>
     </row>
     <row r="254" spans="1:26">
-      <c r="A254" s="128" t="s">
+      <c r="A254" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B254" s="128" t="s">
+      <c r="B254" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C254" s="16" t="s">
@@ -47440,7 +47440,7 @@
       <c r="T254" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U254" s="131"/>
+      <c r="U254" s="132"/>
       <c r="V254" s="22"/>
       <c r="W254" s="22"/>
       <c r="X254" s="22"/>
@@ -47448,8 +47448,8 @@
       <c r="Z254" s="19"/>
     </row>
     <row r="255" spans="1:26">
-      <c r="A255" s="129"/>
-      <c r="B255" s="129"/>
+      <c r="A255" s="130"/>
+      <c r="B255" s="130"/>
       <c r="C255" s="14" t="s">
         <v>49</v>
       </c>
@@ -47504,7 +47504,7 @@
       <c r="T255" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U255" s="131"/>
+      <c r="U255" s="132"/>
       <c r="V255" s="22"/>
       <c r="W255" s="22"/>
       <c r="X255" s="22"/>
@@ -47512,8 +47512,8 @@
       <c r="Z255" s="19"/>
     </row>
     <row r="256" spans="1:26">
-      <c r="A256" s="129"/>
-      <c r="B256" s="129"/>
+      <c r="A256" s="130"/>
+      <c r="B256" s="130"/>
       <c r="C256" s="16" t="s">
         <v>50</v>
       </c>
@@ -47568,7 +47568,7 @@
       <c r="T256" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U256" s="131"/>
+      <c r="U256" s="132"/>
       <c r="V256" s="22"/>
       <c r="W256" s="22"/>
       <c r="X256" s="22"/>
@@ -47576,8 +47576,8 @@
       <c r="Z256" s="19"/>
     </row>
     <row r="257" spans="1:26">
-      <c r="A257" s="129"/>
-      <c r="B257" s="130"/>
+      <c r="A257" s="130"/>
+      <c r="B257" s="131"/>
       <c r="C257" s="24" t="s">
         <v>51</v>
       </c>
@@ -47632,7 +47632,7 @@
       <c r="T257" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U257" s="131"/>
+      <c r="U257" s="132"/>
       <c r="V257" s="22"/>
       <c r="W257" s="22"/>
       <c r="X257" s="22"/>
@@ -47640,8 +47640,8 @@
       <c r="Z257" s="19"/>
     </row>
     <row r="258" spans="1:26">
-      <c r="A258" s="129"/>
-      <c r="B258" s="129" t="s">
+      <c r="A258" s="130"/>
+      <c r="B258" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C258" s="16" t="s">
@@ -47698,7 +47698,7 @@
       <c r="T258" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U258" s="131"/>
+      <c r="U258" s="132"/>
       <c r="V258" s="22"/>
       <c r="W258" s="22"/>
       <c r="X258" s="22"/>
@@ -47706,8 +47706,8 @@
       <c r="Z258" s="19"/>
     </row>
     <row r="259" spans="1:26">
-      <c r="A259" s="129"/>
-      <c r="B259" s="129"/>
+      <c r="A259" s="130"/>
+      <c r="B259" s="130"/>
       <c r="C259" s="14" t="s">
         <v>49</v>
       </c>
@@ -47762,7 +47762,7 @@
       <c r="T259" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U259" s="131"/>
+      <c r="U259" s="132"/>
       <c r="V259" s="22"/>
       <c r="W259" s="22"/>
       <c r="X259" s="22"/>
@@ -47770,8 +47770,8 @@
       <c r="Z259" s="19"/>
     </row>
     <row r="260" spans="1:26">
-      <c r="A260" s="129"/>
-      <c r="B260" s="129"/>
+      <c r="A260" s="130"/>
+      <c r="B260" s="130"/>
       <c r="C260" s="16" t="s">
         <v>50</v>
       </c>
@@ -47826,7 +47826,7 @@
       <c r="T260" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U260" s="131"/>
+      <c r="U260" s="132"/>
       <c r="V260" s="22"/>
       <c r="W260" s="22"/>
       <c r="X260" s="22"/>
@@ -47834,8 +47834,8 @@
       <c r="Z260" s="19"/>
     </row>
     <row r="261" spans="1:26">
-      <c r="A261" s="130"/>
-      <c r="B261" s="130"/>
+      <c r="A261" s="131"/>
+      <c r="B261" s="131"/>
       <c r="C261" s="24" t="s">
         <v>51</v>
       </c>
@@ -47890,7 +47890,7 @@
       <c r="T261" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U261" s="131"/>
+      <c r="U261" s="132"/>
       <c r="V261" s="22"/>
       <c r="W261" s="22"/>
       <c r="X261" s="22"/>
@@ -47898,10 +47898,10 @@
       <c r="Z261" s="19"/>
     </row>
     <row r="262" spans="1:26">
-      <c r="A262" s="128" t="s">
+      <c r="A262" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B262" s="128" t="s">
+      <c r="B262" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C262" s="16" t="s">
@@ -47958,7 +47958,7 @@
       <c r="T262" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U262" s="131"/>
+      <c r="U262" s="132"/>
       <c r="V262" s="22"/>
       <c r="W262" s="22"/>
       <c r="X262" s="22"/>
@@ -47966,8 +47966,8 @@
       <c r="Z262" s="19"/>
     </row>
     <row r="263" spans="1:26">
-      <c r="A263" s="129"/>
-      <c r="B263" s="129"/>
+      <c r="A263" s="130"/>
+      <c r="B263" s="130"/>
       <c r="C263" s="14" t="s">
         <v>49</v>
       </c>
@@ -48022,7 +48022,7 @@
       <c r="T263" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U263" s="131"/>
+      <c r="U263" s="132"/>
       <c r="V263" s="22"/>
       <c r="W263" s="22"/>
       <c r="X263" s="22"/>
@@ -48030,8 +48030,8 @@
       <c r="Z263" s="19"/>
     </row>
     <row r="264" spans="1:26">
-      <c r="A264" s="129"/>
-      <c r="B264" s="129"/>
+      <c r="A264" s="130"/>
+      <c r="B264" s="130"/>
       <c r="C264" s="16" t="s">
         <v>50</v>
       </c>
@@ -48086,7 +48086,7 @@
       <c r="T264" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U264" s="131"/>
+      <c r="U264" s="132"/>
       <c r="V264" s="22"/>
       <c r="W264" s="22"/>
       <c r="X264" s="22"/>
@@ -48094,8 +48094,8 @@
       <c r="Z264" s="19"/>
     </row>
     <row r="265" spans="1:26">
-      <c r="A265" s="129"/>
-      <c r="B265" s="130"/>
+      <c r="A265" s="130"/>
+      <c r="B265" s="131"/>
       <c r="C265" s="24" t="s">
         <v>51</v>
       </c>
@@ -48150,7 +48150,7 @@
       <c r="T265" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U265" s="131"/>
+      <c r="U265" s="132"/>
       <c r="V265" s="22"/>
       <c r="W265" s="22"/>
       <c r="X265" s="22"/>
@@ -48158,8 +48158,8 @@
       <c r="Z265" s="19"/>
     </row>
     <row r="266" spans="1:26">
-      <c r="A266" s="129"/>
-      <c r="B266" s="129" t="s">
+      <c r="A266" s="130"/>
+      <c r="B266" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C266" s="16" t="s">
@@ -48216,7 +48216,7 @@
       <c r="T266" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U266" s="131"/>
+      <c r="U266" s="132"/>
       <c r="V266" s="22"/>
       <c r="W266" s="22"/>
       <c r="X266" s="22"/>
@@ -48224,8 +48224,8 @@
       <c r="Z266" s="19"/>
     </row>
     <row r="267" spans="1:26">
-      <c r="A267" s="129"/>
-      <c r="B267" s="129"/>
+      <c r="A267" s="130"/>
+      <c r="B267" s="130"/>
       <c r="C267" s="14" t="s">
         <v>49</v>
       </c>
@@ -48280,7 +48280,7 @@
       <c r="T267" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U267" s="131"/>
+      <c r="U267" s="132"/>
       <c r="V267" s="22"/>
       <c r="W267" s="22"/>
       <c r="X267" s="22"/>
@@ -48288,8 +48288,8 @@
       <c r="Z267" s="19"/>
     </row>
     <row r="268" spans="1:26">
-      <c r="A268" s="129"/>
-      <c r="B268" s="129"/>
+      <c r="A268" s="130"/>
+      <c r="B268" s="130"/>
       <c r="C268" s="16" t="s">
         <v>50</v>
       </c>
@@ -48344,7 +48344,7 @@
       <c r="T268" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U268" s="131"/>
+      <c r="U268" s="132"/>
       <c r="V268" s="22"/>
       <c r="W268" s="22"/>
       <c r="X268" s="22"/>
@@ -48352,8 +48352,8 @@
       <c r="Z268" s="19"/>
     </row>
     <row r="269" spans="1:26">
-      <c r="A269" s="130"/>
-      <c r="B269" s="130"/>
+      <c r="A269" s="131"/>
+      <c r="B269" s="131"/>
       <c r="C269" s="24" t="s">
         <v>51</v>
       </c>
@@ -48408,7 +48408,7 @@
       <c r="T269" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U269" s="131"/>
+      <c r="U269" s="132"/>
       <c r="V269" s="22"/>
       <c r="W269" s="22"/>
       <c r="X269" s="22"/>
@@ -48416,10 +48416,10 @@
       <c r="Z269" s="19"/>
     </row>
     <row r="270" spans="1:26">
-      <c r="A270" s="128" t="s">
+      <c r="A270" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B270" s="128" t="s">
+      <c r="B270" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C270" s="16" t="s">
@@ -48476,7 +48476,7 @@
       <c r="T270" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U270" s="131"/>
+      <c r="U270" s="132"/>
       <c r="V270" s="22"/>
       <c r="W270" s="22"/>
       <c r="X270" s="22"/>
@@ -48484,8 +48484,8 @@
       <c r="Z270" s="19"/>
     </row>
     <row r="271" spans="1:26">
-      <c r="A271" s="129"/>
-      <c r="B271" s="129"/>
+      <c r="A271" s="130"/>
+      <c r="B271" s="130"/>
       <c r="C271" s="14" t="s">
         <v>49</v>
       </c>
@@ -48540,7 +48540,7 @@
       <c r="T271" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U271" s="131"/>
+      <c r="U271" s="132"/>
       <c r="V271" s="22"/>
       <c r="W271" s="22"/>
       <c r="X271" s="22"/>
@@ -48548,8 +48548,8 @@
       <c r="Z271" s="19"/>
     </row>
     <row r="272" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A272" s="129"/>
-      <c r="B272" s="129"/>
+      <c r="A272" s="130"/>
+      <c r="B272" s="130"/>
       <c r="C272" s="16" t="s">
         <v>50</v>
       </c>
@@ -48604,7 +48604,7 @@
       <c r="T272" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U272" s="131"/>
+      <c r="U272" s="132"/>
       <c r="V272" s="22"/>
       <c r="W272" s="22"/>
       <c r="X272" s="22"/>
@@ -48612,8 +48612,8 @@
       <c r="Z272" s="19"/>
     </row>
     <row r="273" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A273" s="129"/>
-      <c r="B273" s="130"/>
+      <c r="A273" s="130"/>
+      <c r="B273" s="131"/>
       <c r="C273" s="24" t="s">
         <v>51</v>
       </c>
@@ -48668,7 +48668,7 @@
       <c r="T273" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U273" s="131"/>
+      <c r="U273" s="132"/>
       <c r="V273" s="22"/>
       <c r="W273" s="22"/>
       <c r="X273" s="22"/>
@@ -48676,8 +48676,8 @@
       <c r="Z273" s="19"/>
     </row>
     <row r="274" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A274" s="129"/>
-      <c r="B274" s="129" t="s">
+      <c r="A274" s="130"/>
+      <c r="B274" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C274" s="16" t="s">
@@ -48734,7 +48734,7 @@
       <c r="T274" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U274" s="131"/>
+      <c r="U274" s="132"/>
       <c r="V274" s="22"/>
       <c r="W274" s="22"/>
       <c r="X274" s="22"/>
@@ -48742,8 +48742,8 @@
       <c r="Z274" s="19"/>
     </row>
     <row r="275" spans="1:26">
-      <c r="A275" s="129"/>
-      <c r="B275" s="129"/>
+      <c r="A275" s="130"/>
+      <c r="B275" s="130"/>
       <c r="C275" s="14" t="s">
         <v>49</v>
       </c>
@@ -48798,7 +48798,7 @@
       <c r="T275" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U275" s="131"/>
+      <c r="U275" s="132"/>
       <c r="V275" s="22"/>
       <c r="W275" s="22"/>
       <c r="X275" s="22"/>
@@ -48806,8 +48806,8 @@
       <c r="Z275" s="19"/>
     </row>
     <row r="276" spans="1:26">
-      <c r="A276" s="129"/>
-      <c r="B276" s="129"/>
+      <c r="A276" s="130"/>
+      <c r="B276" s="130"/>
       <c r="C276" s="16" t="s">
         <v>50</v>
       </c>
@@ -48862,7 +48862,7 @@
       <c r="T276" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U276" s="131"/>
+      <c r="U276" s="132"/>
       <c r="V276" s="22"/>
       <c r="W276" s="22"/>
       <c r="X276" s="22"/>
@@ -48870,8 +48870,8 @@
       <c r="Z276" s="19"/>
     </row>
     <row r="277" spans="1:26">
-      <c r="A277" s="130"/>
-      <c r="B277" s="130"/>
+      <c r="A277" s="131"/>
+      <c r="B277" s="131"/>
       <c r="C277" s="24" t="s">
         <v>51</v>
       </c>
@@ -48926,7 +48926,7 @@
       <c r="T277" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U277" s="131"/>
+      <c r="U277" s="132"/>
       <c r="V277" s="22"/>
       <c r="W277" s="22"/>
       <c r="X277" s="22"/>
@@ -48934,10 +48934,10 @@
       <c r="Z277" s="19"/>
     </row>
     <row r="278" spans="1:26">
-      <c r="A278" s="128" t="s">
+      <c r="A278" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="B278" s="128" t="s">
+      <c r="B278" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C278" s="16" t="s">
@@ -48994,7 +48994,7 @@
       <c r="T278" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U278" s="131"/>
+      <c r="U278" s="132"/>
       <c r="V278" s="22"/>
       <c r="W278" s="22"/>
       <c r="X278" s="22"/>
@@ -49002,8 +49002,8 @@
       <c r="Z278" s="19"/>
     </row>
     <row r="279" spans="1:26">
-      <c r="A279" s="129"/>
-      <c r="B279" s="129"/>
+      <c r="A279" s="130"/>
+      <c r="B279" s="130"/>
       <c r="C279" s="14" t="s">
         <v>49</v>
       </c>
@@ -49058,7 +49058,7 @@
       <c r="T279" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U279" s="131"/>
+      <c r="U279" s="132"/>
       <c r="V279" s="22"/>
       <c r="W279" s="22"/>
       <c r="X279" s="22"/>
@@ -49066,8 +49066,8 @@
       <c r="Z279" s="19"/>
     </row>
     <row r="280" spans="1:26">
-      <c r="A280" s="129"/>
-      <c r="B280" s="129"/>
+      <c r="A280" s="130"/>
+      <c r="B280" s="130"/>
       <c r="C280" s="16" t="s">
         <v>50</v>
       </c>
@@ -49122,7 +49122,7 @@
       <c r="T280" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U280" s="131"/>
+      <c r="U280" s="132"/>
       <c r="V280" s="22"/>
       <c r="W280" s="22"/>
       <c r="X280" s="22"/>
@@ -49130,8 +49130,8 @@
       <c r="Z280" s="19"/>
     </row>
     <row r="281" spans="1:26">
-      <c r="A281" s="129"/>
-      <c r="B281" s="130"/>
+      <c r="A281" s="130"/>
+      <c r="B281" s="131"/>
       <c r="C281" s="24" t="s">
         <v>51</v>
       </c>
@@ -49186,7 +49186,7 @@
       <c r="T281" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U281" s="131"/>
+      <c r="U281" s="132"/>
       <c r="V281" s="22"/>
       <c r="W281" s="22"/>
       <c r="X281" s="22"/>
@@ -49194,8 +49194,8 @@
       <c r="Z281" s="19"/>
     </row>
     <row r="282" spans="1:26">
-      <c r="A282" s="129"/>
-      <c r="B282" s="129" t="s">
+      <c r="A282" s="130"/>
+      <c r="B282" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C282" s="16" t="s">
@@ -49252,7 +49252,7 @@
       <c r="T282" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U282" s="131"/>
+      <c r="U282" s="132"/>
       <c r="V282" s="22"/>
       <c r="W282" s="22"/>
       <c r="X282" s="22"/>
@@ -49260,8 +49260,8 @@
       <c r="Z282" s="19"/>
     </row>
     <row r="283" spans="1:26">
-      <c r="A283" s="129"/>
-      <c r="B283" s="129"/>
+      <c r="A283" s="130"/>
+      <c r="B283" s="130"/>
       <c r="C283" s="14" t="s">
         <v>49</v>
       </c>
@@ -49316,7 +49316,7 @@
       <c r="T283" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U283" s="131"/>
+      <c r="U283" s="132"/>
       <c r="V283" s="22"/>
       <c r="W283" s="22"/>
       <c r="X283" s="22"/>
@@ -49324,8 +49324,8 @@
       <c r="Z283" s="19"/>
     </row>
     <row r="284" spans="1:26">
-      <c r="A284" s="129"/>
-      <c r="B284" s="129"/>
+      <c r="A284" s="130"/>
+      <c r="B284" s="130"/>
       <c r="C284" s="16" t="s">
         <v>50</v>
       </c>
@@ -49380,7 +49380,7 @@
       <c r="T284" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U284" s="131"/>
+      <c r="U284" s="132"/>
       <c r="V284" s="22"/>
       <c r="W284" s="22"/>
       <c r="X284" s="22"/>
@@ -49388,8 +49388,8 @@
       <c r="Z284" s="19"/>
     </row>
     <row r="285" spans="1:26">
-      <c r="A285" s="130"/>
-      <c r="B285" s="130"/>
+      <c r="A285" s="131"/>
+      <c r="B285" s="131"/>
       <c r="C285" s="24" t="s">
         <v>51</v>
       </c>
@@ -49444,7 +49444,7 @@
       <c r="T285" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U285" s="131"/>
+      <c r="U285" s="132"/>
       <c r="V285" s="22"/>
       <c r="W285" s="22"/>
       <c r="X285" s="22"/>
@@ -49452,10 +49452,10 @@
       <c r="Z285" s="19"/>
     </row>
     <row r="286" spans="1:26">
-      <c r="A286" s="128" t="s">
+      <c r="A286" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="B286" s="128" t="s">
+      <c r="B286" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C286" s="16" t="s">
@@ -49512,7 +49512,7 @@
       <c r="T286" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U286" s="131"/>
+      <c r="U286" s="132"/>
       <c r="V286" s="22"/>
       <c r="W286" s="22"/>
       <c r="X286" s="22"/>
@@ -49520,8 +49520,8 @@
       <c r="Z286" s="19"/>
     </row>
     <row r="287" spans="1:26">
-      <c r="A287" s="129"/>
-      <c r="B287" s="129"/>
+      <c r="A287" s="130"/>
+      <c r="B287" s="130"/>
       <c r="C287" s="14" t="s">
         <v>49</v>
       </c>
@@ -49576,7 +49576,7 @@
       <c r="T287" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U287" s="131"/>
+      <c r="U287" s="132"/>
       <c r="V287" s="22"/>
       <c r="W287" s="22"/>
       <c r="X287" s="22"/>
@@ -49584,8 +49584,8 @@
       <c r="Z287" s="19"/>
     </row>
     <row r="288" spans="1:26">
-      <c r="A288" s="129"/>
-      <c r="B288" s="129"/>
+      <c r="A288" s="130"/>
+      <c r="B288" s="130"/>
       <c r="C288" s="16" t="s">
         <v>50</v>
       </c>
@@ -49640,7 +49640,7 @@
       <c r="T288" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U288" s="131"/>
+      <c r="U288" s="132"/>
       <c r="V288" s="22"/>
       <c r="W288" s="22"/>
       <c r="X288" s="22"/>
@@ -49648,8 +49648,8 @@
       <c r="Z288" s="19"/>
     </row>
     <row r="289" spans="1:26">
-      <c r="A289" s="129"/>
-      <c r="B289" s="130"/>
+      <c r="A289" s="130"/>
+      <c r="B289" s="131"/>
       <c r="C289" s="24" t="s">
         <v>51</v>
       </c>
@@ -49704,7 +49704,7 @@
       <c r="T289" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U289" s="131"/>
+      <c r="U289" s="132"/>
       <c r="V289" s="22"/>
       <c r="W289" s="22"/>
       <c r="X289" s="22"/>
@@ -49712,8 +49712,8 @@
       <c r="Z289" s="19"/>
     </row>
     <row r="290" spans="1:26">
-      <c r="A290" s="129"/>
-      <c r="B290" s="129" t="s">
+      <c r="A290" s="130"/>
+      <c r="B290" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C290" s="16" t="s">
@@ -49770,7 +49770,7 @@
       <c r="T290" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U290" s="131"/>
+      <c r="U290" s="132"/>
       <c r="V290" s="22"/>
       <c r="W290" s="22"/>
       <c r="X290" s="22"/>
@@ -49778,8 +49778,8 @@
       <c r="Z290" s="19"/>
     </row>
     <row r="291" spans="1:26">
-      <c r="A291" s="129"/>
-      <c r="B291" s="129"/>
+      <c r="A291" s="130"/>
+      <c r="B291" s="130"/>
       <c r="C291" s="14" t="s">
         <v>49</v>
       </c>
@@ -49834,7 +49834,7 @@
       <c r="T291" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U291" s="131"/>
+      <c r="U291" s="132"/>
       <c r="V291" s="22"/>
       <c r="W291" s="22"/>
       <c r="X291" s="22"/>
@@ -49842,8 +49842,8 @@
       <c r="Z291" s="19"/>
     </row>
     <row r="292" spans="1:26">
-      <c r="A292" s="129"/>
-      <c r="B292" s="129"/>
+      <c r="A292" s="130"/>
+      <c r="B292" s="130"/>
       <c r="C292" s="16" t="s">
         <v>50</v>
       </c>
@@ -49898,7 +49898,7 @@
       <c r="T292" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U292" s="131"/>
+      <c r="U292" s="132"/>
       <c r="V292" s="22"/>
       <c r="W292" s="22"/>
       <c r="X292" s="22"/>
@@ -49906,8 +49906,8 @@
       <c r="Z292" s="19"/>
     </row>
     <row r="293" spans="1:26">
-      <c r="A293" s="130"/>
-      <c r="B293" s="130"/>
+      <c r="A293" s="131"/>
+      <c r="B293" s="131"/>
       <c r="C293" s="24" t="s">
         <v>51</v>
       </c>
@@ -49962,7 +49962,7 @@
       <c r="T293" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U293" s="131"/>
+      <c r="U293" s="132"/>
       <c r="V293" s="22"/>
       <c r="W293" s="22"/>
       <c r="X293" s="22"/>
@@ -49970,10 +49970,10 @@
       <c r="Z293" s="19"/>
     </row>
     <row r="294" spans="1:26">
-      <c r="A294" s="128" t="s">
+      <c r="A294" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="B294" s="128" t="s">
+      <c r="B294" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C294" s="16" t="s">
@@ -50030,7 +50030,7 @@
       <c r="T294" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U294" s="131"/>
+      <c r="U294" s="132"/>
       <c r="V294" s="22"/>
       <c r="W294" s="22"/>
       <c r="X294" s="22"/>
@@ -50038,8 +50038,8 @@
       <c r="Z294" s="19"/>
     </row>
     <row r="295" spans="1:26">
-      <c r="A295" s="129"/>
-      <c r="B295" s="129"/>
+      <c r="A295" s="130"/>
+      <c r="B295" s="130"/>
       <c r="C295" s="14" t="s">
         <v>49</v>
       </c>
@@ -50094,7 +50094,7 @@
       <c r="T295" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U295" s="131"/>
+      <c r="U295" s="132"/>
       <c r="V295" s="22"/>
       <c r="W295" s="22"/>
       <c r="X295" s="22"/>
@@ -50102,8 +50102,8 @@
       <c r="Z295" s="19"/>
     </row>
     <row r="296" spans="1:26">
-      <c r="A296" s="129"/>
-      <c r="B296" s="129"/>
+      <c r="A296" s="130"/>
+      <c r="B296" s="130"/>
       <c r="C296" s="16" t="s">
         <v>50</v>
       </c>
@@ -50158,7 +50158,7 @@
       <c r="T296" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U296" s="131"/>
+      <c r="U296" s="132"/>
       <c r="V296" s="22"/>
       <c r="W296" s="22"/>
       <c r="X296" s="22"/>
@@ -50166,8 +50166,8 @@
       <c r="Z296" s="19"/>
     </row>
     <row r="297" spans="1:26">
-      <c r="A297" s="129"/>
-      <c r="B297" s="130"/>
+      <c r="A297" s="130"/>
+      <c r="B297" s="131"/>
       <c r="C297" s="24" t="s">
         <v>51</v>
       </c>
@@ -50222,7 +50222,7 @@
       <c r="T297" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U297" s="131"/>
+      <c r="U297" s="132"/>
       <c r="V297" s="22"/>
       <c r="W297" s="22"/>
       <c r="X297" s="22"/>
@@ -50230,8 +50230,8 @@
       <c r="Z297" s="19"/>
     </row>
     <row r="298" spans="1:26">
-      <c r="A298" s="129"/>
-      <c r="B298" s="129" t="s">
+      <c r="A298" s="130"/>
+      <c r="B298" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C298" s="16" t="s">
@@ -50288,7 +50288,7 @@
       <c r="T298" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U298" s="131"/>
+      <c r="U298" s="132"/>
       <c r="V298" s="22"/>
       <c r="W298" s="22"/>
       <c r="X298" s="22"/>
@@ -50296,8 +50296,8 @@
       <c r="Z298" s="19"/>
     </row>
     <row r="299" spans="1:26">
-      <c r="A299" s="129"/>
-      <c r="B299" s="129"/>
+      <c r="A299" s="130"/>
+      <c r="B299" s="130"/>
       <c r="C299" s="14" t="s">
         <v>49</v>
       </c>
@@ -50352,7 +50352,7 @@
       <c r="T299" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U299" s="131"/>
+      <c r="U299" s="132"/>
       <c r="V299" s="22"/>
       <c r="W299" s="22"/>
       <c r="X299" s="22"/>
@@ -50360,8 +50360,8 @@
       <c r="Z299" s="19"/>
     </row>
     <row r="300" spans="1:26">
-      <c r="A300" s="129"/>
-      <c r="B300" s="129"/>
+      <c r="A300" s="130"/>
+      <c r="B300" s="130"/>
       <c r="C300" s="16" t="s">
         <v>50</v>
       </c>
@@ -50416,7 +50416,7 @@
       <c r="T300" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U300" s="131"/>
+      <c r="U300" s="132"/>
       <c r="V300" s="22"/>
       <c r="W300" s="22"/>
       <c r="X300" s="22"/>
@@ -50424,8 +50424,8 @@
       <c r="Z300" s="19"/>
     </row>
     <row r="301" spans="1:26">
-      <c r="A301" s="130"/>
-      <c r="B301" s="130"/>
+      <c r="A301" s="131"/>
+      <c r="B301" s="131"/>
       <c r="C301" s="24" t="s">
         <v>51</v>
       </c>
@@ -50480,7 +50480,7 @@
       <c r="T301" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U301" s="131"/>
+      <c r="U301" s="132"/>
       <c r="V301" s="22"/>
       <c r="W301" s="22"/>
       <c r="X301" s="22"/>
@@ -50488,10 +50488,10 @@
       <c r="Z301" s="19"/>
     </row>
     <row r="302" spans="1:26">
-      <c r="A302" s="128" t="s">
+      <c r="A302" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B302" s="128" t="s">
+      <c r="B302" s="129" t="s">
         <v>37</v>
       </c>
       <c r="C302" s="16" t="s">
@@ -50548,7 +50548,7 @@
       <c r="T302" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U302" s="131"/>
+      <c r="U302" s="132"/>
       <c r="V302" s="22"/>
       <c r="W302" s="22"/>
       <c r="X302" s="22"/>
@@ -50556,8 +50556,8 @@
       <c r="Z302" s="19"/>
     </row>
     <row r="303" spans="1:26">
-      <c r="A303" s="129"/>
-      <c r="B303" s="129"/>
+      <c r="A303" s="130"/>
+      <c r="B303" s="130"/>
       <c r="C303" s="14" t="s">
         <v>49</v>
       </c>
@@ -50612,7 +50612,7 @@
       <c r="T303" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U303" s="131"/>
+      <c r="U303" s="132"/>
       <c r="V303" s="22"/>
       <c r="W303" s="22"/>
       <c r="X303" s="22"/>
@@ -50620,8 +50620,8 @@
       <c r="Z303" s="19"/>
     </row>
     <row r="304" spans="1:26">
-      <c r="A304" s="129"/>
-      <c r="B304" s="129"/>
+      <c r="A304" s="130"/>
+      <c r="B304" s="130"/>
       <c r="C304" s="16" t="s">
         <v>50</v>
       </c>
@@ -50676,7 +50676,7 @@
       <c r="T304" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U304" s="131"/>
+      <c r="U304" s="132"/>
       <c r="V304" s="22"/>
       <c r="W304" s="22"/>
       <c r="X304" s="22"/>
@@ -50684,8 +50684,8 @@
       <c r="Z304" s="19"/>
     </row>
     <row r="305" spans="1:26">
-      <c r="A305" s="129"/>
-      <c r="B305" s="130"/>
+      <c r="A305" s="130"/>
+      <c r="B305" s="131"/>
       <c r="C305" s="24" t="s">
         <v>51</v>
       </c>
@@ -50740,7 +50740,7 @@
       <c r="T305" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U305" s="131"/>
+      <c r="U305" s="132"/>
       <c r="V305" s="22"/>
       <c r="W305" s="22"/>
       <c r="X305" s="22"/>
@@ -50748,8 +50748,8 @@
       <c r="Z305" s="19"/>
     </row>
     <row r="306" spans="1:26">
-      <c r="A306" s="129"/>
-      <c r="B306" s="129" t="s">
+      <c r="A306" s="130"/>
+      <c r="B306" s="130" t="s">
         <v>38</v>
       </c>
       <c r="C306" s="16" t="s">
@@ -50806,7 +50806,7 @@
       <c r="T306" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U306" s="131"/>
+      <c r="U306" s="132"/>
       <c r="V306" s="22"/>
       <c r="W306" s="22"/>
       <c r="X306" s="22"/>
@@ -50814,8 +50814,8 @@
       <c r="Z306" s="19"/>
     </row>
     <row r="307" spans="1:26">
-      <c r="A307" s="129"/>
-      <c r="B307" s="129"/>
+      <c r="A307" s="130"/>
+      <c r="B307" s="130"/>
       <c r="C307" s="14" t="s">
         <v>49</v>
       </c>
@@ -50870,7 +50870,7 @@
       <c r="T307" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U307" s="131"/>
+      <c r="U307" s="132"/>
       <c r="V307" s="22"/>
       <c r="W307" s="22"/>
       <c r="X307" s="22"/>
@@ -50878,8 +50878,8 @@
       <c r="Z307" s="19"/>
     </row>
     <row r="308" spans="1:26">
-      <c r="A308" s="129"/>
-      <c r="B308" s="129"/>
+      <c r="A308" s="130"/>
+      <c r="B308" s="130"/>
       <c r="C308" s="16" t="s">
         <v>50</v>
       </c>
@@ -50934,7 +50934,7 @@
       <c r="T308" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="U308" s="131"/>
+      <c r="U308" s="132"/>
       <c r="V308" s="22"/>
       <c r="W308" s="22"/>
       <c r="X308" s="22"/>
@@ -50942,8 +50942,8 @@
       <c r="Z308" s="19"/>
     </row>
     <row r="309" spans="1:26">
-      <c r="A309" s="130"/>
-      <c r="B309" s="130"/>
+      <c r="A309" s="131"/>
+      <c r="B309" s="131"/>
       <c r="C309" s="24" t="s">
         <v>51</v>
       </c>
@@ -50998,7 +50998,7 @@
       <c r="T309" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="U309" s="131"/>
+      <c r="U309" s="132"/>
       <c r="V309" s="22"/>
       <c r="W309" s="22"/>
       <c r="X309" s="22"/>
@@ -51213,90 +51213,201 @@
       <c r="N325" s="125"/>
     </row>
     <row r="326" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A326" s="137" t="s">
+      <c r="A326" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B326" s="137"/>
-      <c r="C326" s="137"/>
-      <c r="D326" s="137"/>
-      <c r="E326" s="137"/>
-      <c r="F326" s="137"/>
-      <c r="G326" s="137"/>
-      <c r="H326" s="137"/>
-      <c r="I326" s="137"/>
-      <c r="J326" s="137"/>
-      <c r="K326" s="137"/>
-      <c r="L326" s="137"/>
-      <c r="M326" s="137"/>
-      <c r="N326" s="137"/>
+      <c r="B326" s="128"/>
+      <c r="C326" s="128"/>
+      <c r="D326" s="128"/>
+      <c r="E326" s="128"/>
+      <c r="F326" s="128"/>
+      <c r="G326" s="128"/>
+      <c r="H326" s="128"/>
+      <c r="I326" s="128"/>
+      <c r="J326" s="128"/>
+      <c r="K326" s="128"/>
+      <c r="L326" s="128"/>
+      <c r="M326" s="128"/>
+      <c r="N326" s="128"/>
     </row>
     <row r="327" spans="1:14">
-      <c r="A327" s="137"/>
-      <c r="B327" s="137"/>
-      <c r="C327" s="137"/>
-      <c r="D327" s="137"/>
-      <c r="E327" s="137"/>
-      <c r="F327" s="137"/>
-      <c r="G327" s="137"/>
-      <c r="H327" s="137"/>
-      <c r="I327" s="137"/>
-      <c r="J327" s="137"/>
-      <c r="K327" s="137"/>
-      <c r="L327" s="137"/>
-      <c r="M327" s="137"/>
-      <c r="N327" s="137"/>
+      <c r="A327" s="128"/>
+      <c r="B327" s="128"/>
+      <c r="C327" s="128"/>
+      <c r="D327" s="128"/>
+      <c r="E327" s="128"/>
+      <c r="F327" s="128"/>
+      <c r="G327" s="128"/>
+      <c r="H327" s="128"/>
+      <c r="I327" s="128"/>
+      <c r="J327" s="128"/>
+      <c r="K327" s="128"/>
+      <c r="L327" s="128"/>
+      <c r="M327" s="128"/>
+      <c r="N327" s="128"/>
     </row>
     <row r="328" spans="1:14">
-      <c r="A328" s="137" t="s">
+      <c r="A328" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="B328" s="137"/>
-      <c r="C328" s="137"/>
-      <c r="D328" s="137"/>
-      <c r="E328" s="137"/>
-      <c r="F328" s="137"/>
-      <c r="G328" s="137"/>
-      <c r="H328" s="137"/>
-      <c r="I328" s="137"/>
-      <c r="J328" s="137"/>
-      <c r="K328" s="137"/>
-      <c r="L328" s="137"/>
-      <c r="M328" s="137"/>
-      <c r="N328" s="137"/>
+      <c r="B328" s="128"/>
+      <c r="C328" s="128"/>
+      <c r="D328" s="128"/>
+      <c r="E328" s="128"/>
+      <c r="F328" s="128"/>
+      <c r="G328" s="128"/>
+      <c r="H328" s="128"/>
+      <c r="I328" s="128"/>
+      <c r="J328" s="128"/>
+      <c r="K328" s="128"/>
+      <c r="L328" s="128"/>
+      <c r="M328" s="128"/>
+      <c r="N328" s="128"/>
     </row>
     <row r="329" spans="1:14">
-      <c r="A329" s="137"/>
-      <c r="B329" s="137"/>
-      <c r="C329" s="137"/>
-      <c r="D329" s="137"/>
-      <c r="E329" s="137"/>
-      <c r="F329" s="137"/>
-      <c r="G329" s="137"/>
-      <c r="H329" s="137"/>
-      <c r="I329" s="137"/>
-      <c r="J329" s="137"/>
-      <c r="K329" s="137"/>
-      <c r="L329" s="137"/>
-      <c r="M329" s="137"/>
-      <c r="N329" s="137"/>
+      <c r="A329" s="128"/>
+      <c r="B329" s="128"/>
+      <c r="C329" s="128"/>
+      <c r="D329" s="128"/>
+      <c r="E329" s="128"/>
+      <c r="F329" s="128"/>
+      <c r="G329" s="128"/>
+      <c r="H329" s="128"/>
+      <c r="I329" s="128"/>
+      <c r="J329" s="128"/>
+      <c r="K329" s="128"/>
+      <c r="L329" s="128"/>
+      <c r="M329" s="128"/>
+      <c r="N329" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="A328:N329"/>
-    <mergeCell ref="A302:A309"/>
-    <mergeCell ref="B302:B305"/>
-    <mergeCell ref="U302:U309"/>
-    <mergeCell ref="B306:B309"/>
-    <mergeCell ref="A326:N327"/>
-    <mergeCell ref="A286:A293"/>
-    <mergeCell ref="B286:B289"/>
-    <mergeCell ref="U286:U293"/>
-    <mergeCell ref="B290:B293"/>
-    <mergeCell ref="A294:A301"/>
-    <mergeCell ref="B294:B297"/>
-    <mergeCell ref="U294:U301"/>
-    <mergeCell ref="B298:B301"/>
-    <mergeCell ref="A315:N325"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="U14:U21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="U22:U29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="U6:U13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="U38:U45"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="U54:U61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="U30:U37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="U78:U85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A86:A93"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="U86:U93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="U62:U69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="U70:U77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="U110:U117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="U118:U125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="U94:U101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="U102:U109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="A142:A149"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="U142:U149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="A150:A157"/>
+    <mergeCell ref="B150:B153"/>
+    <mergeCell ref="U150:U157"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="U126:U133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="A134:A141"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="U134:U141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A174:A181"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="U174:U181"/>
+    <mergeCell ref="B178:B181"/>
+    <mergeCell ref="A182:A189"/>
+    <mergeCell ref="B182:B185"/>
+    <mergeCell ref="U182:U189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A158:A165"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="U158:U165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="A166:A173"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="U166:U173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="A206:A213"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="U206:U213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="A214:A221"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="U214:U221"/>
+    <mergeCell ref="B218:B221"/>
+    <mergeCell ref="A190:A197"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="U190:U197"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A198:A205"/>
+    <mergeCell ref="B198:B201"/>
+    <mergeCell ref="U198:U205"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A238:A245"/>
+    <mergeCell ref="B238:B241"/>
+    <mergeCell ref="U238:U245"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A246:A253"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="U246:U253"/>
+    <mergeCell ref="B250:B253"/>
+    <mergeCell ref="A222:A229"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="U222:U229"/>
+    <mergeCell ref="B226:B229"/>
+    <mergeCell ref="A230:A237"/>
+    <mergeCell ref="B230:B233"/>
+    <mergeCell ref="U230:U237"/>
+    <mergeCell ref="B234:B237"/>
     <mergeCell ref="A270:A277"/>
     <mergeCell ref="B270:B273"/>
     <mergeCell ref="U270:U277"/>
@@ -51313,132 +51424,21 @@
     <mergeCell ref="B262:B265"/>
     <mergeCell ref="U262:U269"/>
     <mergeCell ref="B266:B269"/>
-    <mergeCell ref="A238:A245"/>
-    <mergeCell ref="B238:B241"/>
-    <mergeCell ref="U238:U245"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A246:A253"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="U246:U253"/>
-    <mergeCell ref="B250:B253"/>
-    <mergeCell ref="A222:A229"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="U222:U229"/>
-    <mergeCell ref="B226:B229"/>
-    <mergeCell ref="A230:A237"/>
-    <mergeCell ref="B230:B233"/>
-    <mergeCell ref="U230:U237"/>
-    <mergeCell ref="B234:B237"/>
-    <mergeCell ref="A206:A213"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="U206:U213"/>
-    <mergeCell ref="B210:B213"/>
-    <mergeCell ref="A214:A221"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="U214:U221"/>
-    <mergeCell ref="B218:B221"/>
-    <mergeCell ref="A190:A197"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="U190:U197"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A198:A205"/>
-    <mergeCell ref="B198:B201"/>
-    <mergeCell ref="U198:U205"/>
-    <mergeCell ref="B202:B205"/>
-    <mergeCell ref="A174:A181"/>
-    <mergeCell ref="B174:B177"/>
-    <mergeCell ref="U174:U181"/>
-    <mergeCell ref="B178:B181"/>
-    <mergeCell ref="A182:A189"/>
-    <mergeCell ref="B182:B185"/>
-    <mergeCell ref="U182:U189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A158:A165"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="U158:U165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="A166:A173"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="U166:U173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="A142:A149"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="U142:U149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="A150:A157"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="U150:U157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="A126:A133"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="U126:U133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="A134:A141"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="U134:U141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A110:A117"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="U110:U117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="A118:A125"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="U118:U125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="U94:U101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="U102:U109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="U78:U85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A86:A93"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="U86:U93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="U62:U69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="U70:U77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="U38:U45"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="U54:U61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="U30:U37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="U14:U21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="U22:U29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="U6:U13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="A328:N329"/>
+    <mergeCell ref="A302:A309"/>
+    <mergeCell ref="B302:B305"/>
+    <mergeCell ref="U302:U309"/>
+    <mergeCell ref="B306:B309"/>
+    <mergeCell ref="A326:N327"/>
+    <mergeCell ref="A286:A293"/>
+    <mergeCell ref="B286:B289"/>
+    <mergeCell ref="U286:U293"/>
+    <mergeCell ref="B290:B293"/>
+    <mergeCell ref="A294:A301"/>
+    <mergeCell ref="B294:B297"/>
+    <mergeCell ref="U294:U301"/>
+    <mergeCell ref="B298:B301"/>
+    <mergeCell ref="A315:N325"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -51446,23 +51446,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="27ec883c-a62c-444f-a935-fcddb579e39d" ContentTypeId="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE52995" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<CtFieldPriority xmlns="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/" xmlns:i="http://www.w3.org/2001/XMLSchema-instance">
-  <PriorityFields xmlns:a="http://schemas.microsoft.com/2003/10/Serialization/Arrays">
-    <a:string>Title</a:string>
-    <a:string>OECDCountry</a:string>
-    <a:string>OECDTopic</a:string>
-    <a:string>OECDKeywords</a:string>
-  </PriorityFields>
-</CtFieldPriority>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Working Document" ma:contentTypeID="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE5299500A4858B360C6A491AA753F8BCA47AA9100033AB0B45A31F2B489F9B80276A6B0922" ma:contentTypeVersion="73" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="60bf4a5bd89e0625e9bac68ddbe12fdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="54c4cd27-f286-408f-9ce0-33c1e0f3ab39" xmlns:ns2="c5805097-db0a-42f9-a837-be9035f1f571" xmlns:ns3="22a5b7d0-1699-458f-b8e2-4d8247229549" xmlns:ns5="c9f238dd-bb73-4aef-a7a5-d644ad823e52" xmlns:ns6="ca82dde9-3436-4d3d-bddd-d31447390034" xmlns:ns7="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c7c1e1a7a19ed40b9f1ee3ec23da138" ns1:_="" ns2:_="" ns3:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="54c4cd27-f286-408f-9ce0-33c1e0f3ab39"/>
@@ -51885,7 +51868,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<CtFieldPriority xmlns="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/" xmlns:i="http://www.w3.org/2001/XMLSchema-instance">
+  <PriorityFields xmlns:a="http://schemas.microsoft.com/2003/10/Serialization/Arrays">
+    <a:string>Title</a:string>
+    <a:string>OECDCountry</a:string>
+    <a:string>OECDTopic</a:string>
+    <a:string>OECDKeywords</a:string>
+  </PriorityFields>
+</CtFieldPriority>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="27ec883c-a62c-444f-a935-fcddb579e39d" ContentTypeId="0x0101008B4DD370EC31429186F3AD49F0D3098F00D44DBCB9EB4F45278CB5C9765BE52995" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>OECDListFormCollapsible</Display>
+  <Edit>OECDListFormCollapsible</Edit>
+  <New>OECDListFormCollapsible</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <eShareHorizProjTaxHTField0 xmlns="c5805097-db0a-42f9-a837-be9035f1f571" xsi:nil="true"/>
@@ -52050,33 +52059,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>OECDListFormCollapsible</Display>
-  <Edit>OECDListFormCollapsible</Edit>
-  <New>OECDListFormCollapsible</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C5113C-6FE9-4C74-A79E-71426086A4C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B328F52E-5A6E-4647-AC6D-AEC2DB523C4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/2003/10/Serialization/Arrays"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5473B4B-4AAC-4EA3-8DA6-6E39D2E0E2CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52099,7 +52082,32 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B328F52E-5A6E-4647-AC6D-AEC2DB523C4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.oecd.org/eshare/projectsentre/CtFieldPriority/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/2003/10/Serialization/Arrays"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13C5113C-6FE9-4C74-A79E-71426086A4C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51555B70-B1CC-402F-A01F-3B4D358DA5D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EBDED6-E6BB-44F4-8DD9-681FB93A5B9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="22a5b7d0-1699-458f-b8e2-4d8247229549"/>
@@ -52118,12 +52126,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51555B70-B1CC-402F-A01F-3B4D358DA5D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>